--- a/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8524597302142396</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8628791582837098</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8764203684579828</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.8732125134015923</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8801690129950128</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8766489406030107</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8899197709446391</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8867749721653849</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8814189539502625</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.8892942256016425</v>
+      </c>
+      <c r="D3">
+        <v>0.8983196810627917</v>
+      </c>
+      <c r="E3">
+        <v>0.909773600973502</v>
+      </c>
+      <c r="F3">
+        <v>0.9086619029688394</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.9133365825085695</v>
+      </c>
+      <c r="K3">
+        <v>0.9104431968067713</v>
+      </c>
+      <c r="L3">
+        <v>0.9217078210169799</v>
+      </c>
+      <c r="M3">
+        <v>0.9206142270119771</v>
+      </c>
+      <c r="N3">
+        <v>0.9146336252169019</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>0.9094345044689861</v>
+      </c>
+      <c r="D4">
+        <v>0.9177280148492791</v>
+      </c>
+      <c r="E4">
+        <v>0.9280479362329519</v>
+      </c>
+      <c r="F4">
+        <v>0.928088178191858</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.9314774339438174</v>
+      </c>
+      <c r="K4">
+        <v>0.9289324746493364</v>
+      </c>
+      <c r="L4">
+        <v>0.9391000240834216</v>
+      </c>
+      <c r="M4">
+        <v>0.9391396802891842</v>
+      </c>
+      <c r="N4">
+        <v>0.9328002387419725</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>0.9172694544626814</v>
+      </c>
+      <c r="D5">
+        <v>0.9252834336501634</v>
+      </c>
+      <c r="E5">
+        <v>0.9351628194763294</v>
+      </c>
+      <c r="F5">
+        <v>0.935652920375046</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.9385341793603533</v>
+      </c>
+      <c r="K5">
+        <v>0.9361260810406827</v>
+      </c>
+      <c r="L5">
+        <v>0.9458661644703208</v>
+      </c>
+      <c r="M5">
+        <v>0.9463494514238816</v>
+      </c>
+      <c r="N5">
+        <v>0.9398670055464201</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0.918552872850833</v>
+      </c>
+      <c r="D6">
+        <v>0.9265213282061586</v>
+      </c>
+      <c r="E6">
+        <v>0.9363285643719075</v>
+      </c>
+      <c r="F6">
+        <v>0.9368924640547335</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.9396900650758584</v>
+      </c>
+      <c r="K6">
+        <v>0.9373044615983029</v>
+      </c>
+      <c r="L6">
+        <v>0.9469744697579365</v>
+      </c>
+      <c r="M6">
+        <v>0.947530589163788</v>
+      </c>
+      <c r="N6">
+        <v>0.9410245327522233</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>0.9095414428649835</v>
+      </c>
+      <c r="D7">
+        <v>0.917831118945281</v>
+      </c>
+      <c r="E7">
+        <v>0.9281450261505617</v>
+      </c>
+      <c r="F7">
+        <v>0.9281914008668367</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.9315737539538397</v>
+      </c>
+      <c r="K7">
+        <v>0.9290306574182341</v>
+      </c>
+      <c r="L7">
+        <v>0.9391923758095642</v>
+      </c>
+      <c r="M7">
+        <v>0.9392380759221285</v>
+      </c>
+      <c r="N7">
+        <v>0.9328966955374571</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0.8658817868848285</v>
+      </c>
+      <c r="D8">
+        <v>0.8757844069553519</v>
+      </c>
+      <c r="E8">
+        <v>0.8885623037000315</v>
+      </c>
+      <c r="F8">
+        <v>0.8861172387656292</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.8922519996941773</v>
+      </c>
+      <c r="K8">
+        <v>0.8889588950647168</v>
+      </c>
+      <c r="L8">
+        <v>0.9014981141051909</v>
+      </c>
+      <c r="M8">
+        <v>0.8990980262917531</v>
+      </c>
+      <c r="N8">
+        <v>0.8935190998764779</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D9">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E9">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F9">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K9">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L9">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M9">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N9">
+        <v>0.7510521655028172</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D10">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E10">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F10">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K10">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L10">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M10">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N10">
+        <v>0.7510521655028172</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D11">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E11">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F11">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K11">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L11">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M11">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N11">
+        <v>0.7510521655028172</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D12">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E12">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F12">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K12">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L12">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M12">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N12">
+        <v>0.7510521655028172</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D13">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E13">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F13">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K13">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L13">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M13">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N13">
+        <v>0.7510521655028172</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D14">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E14">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F14">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K14">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L14">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M14">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N14">
+        <v>0.7510521655028172</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D15">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E15">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F15">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K15">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L15">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M15">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N15">
+        <v>0.7510521655028172</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D16">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E16">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F16">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K16">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L16">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M16">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N16">
+        <v>0.7510521655028172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D17">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E17">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F17">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K17">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L17">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M17">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N17">
+        <v>0.7510521655028172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D18">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E18">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F18">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K18">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L18">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M18">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N18">
+        <v>0.7510521655028172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D19">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E19">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F19">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K19">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L19">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M19">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N19">
+        <v>0.7510521655028172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D20">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E20">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F20">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K20">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L20">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M20">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N20">
+        <v>0.7510521655028172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D21">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E21">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F21">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K21">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L21">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M21">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N21">
+        <v>0.7510521655028172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D22">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E22">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F22">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K22">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L22">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M22">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N22">
+        <v>0.7510521655028172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D23">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E23">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F23">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K23">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L23">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M23">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N23">
+        <v>0.7510521655028172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D24">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E24">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F24">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K24">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L24">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M24">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N24">
+        <v>0.7510521655028172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.707151120964304</v>
+      </c>
+      <c r="D25">
+        <v>0.7240466289995011</v>
+      </c>
+      <c r="E25">
+        <v>0.7462790042391598</v>
+      </c>
+      <c r="F25">
+        <v>0.7347389249110139</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.7499870977992197</v>
+      </c>
+      <c r="K25">
+        <v>0.7440668669446331</v>
+      </c>
+      <c r="L25">
+        <v>0.7654736949436652</v>
+      </c>
+      <c r="M25">
+        <v>0.7543533566871028</v>
+      </c>
+      <c r="N25">
+        <v>0.7510521655028172</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.8524597302142396</v>
+        <v>1.007291596738164</v>
       </c>
       <c r="D2">
-        <v>0.8628791582837098</v>
+        <v>1.020666830469162</v>
       </c>
       <c r="E2">
-        <v>0.8764203684579828</v>
+        <v>1.012642153730476</v>
       </c>
       <c r="F2">
-        <v>0.8732125134015923</v>
+        <v>1.027215192627805</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.05165431795539</v>
+      </c>
       <c r="J2">
-        <v>0.8801690129950128</v>
+        <v>1.029256383347777</v>
       </c>
       <c r="K2">
-        <v>0.8766489406030107</v>
+        <v>1.03184556042399</v>
       </c>
       <c r="L2">
-        <v>0.8899197709446391</v>
+        <v>1.023928128691646</v>
       </c>
       <c r="M2">
-        <v>0.8867749721653849</v>
+        <v>1.038307962744843</v>
       </c>
       <c r="N2">
-        <v>0.8814189539502625</v>
+        <v>1.013349355695933</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.8892942256016425</v>
+        <v>1.012933824700776</v>
       </c>
       <c r="D3">
-        <v>0.8983196810627917</v>
+        <v>1.025534487104751</v>
       </c>
       <c r="E3">
-        <v>0.909773600973502</v>
+        <v>1.017234300847919</v>
       </c>
       <c r="F3">
-        <v>0.9086619029688394</v>
+        <v>1.032488153858965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.053369411003046</v>
+      </c>
       <c r="J3">
-        <v>0.9133365825085695</v>
+        <v>1.033078004695752</v>
       </c>
       <c r="K3">
-        <v>0.9104431968067713</v>
+        <v>1.035850750217081</v>
       </c>
       <c r="L3">
-        <v>0.9217078210169799</v>
+        <v>1.027651314134353</v>
       </c>
       <c r="M3">
-        <v>0.9206142270119771</v>
+        <v>1.042721556165726</v>
       </c>
       <c r="N3">
-        <v>0.9146336252169019</v>
+        <v>1.014643472313314</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9094345044689861</v>
+        <v>1.016495295594346</v>
       </c>
       <c r="D4">
-        <v>0.9177280148492791</v>
+        <v>1.028612223859236</v>
       </c>
       <c r="E4">
-        <v>0.9280479362329519</v>
+        <v>1.020139107657051</v>
       </c>
       <c r="F4">
-        <v>0.928088178191858</v>
+        <v>1.035822026760252</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.054435954576246</v>
+      </c>
       <c r="J4">
-        <v>0.9314774339438174</v>
+        <v>1.035486259203338</v>
       </c>
       <c r="K4">
-        <v>0.9289324746493364</v>
+        <v>1.038377166066767</v>
       </c>
       <c r="L4">
-        <v>0.9391000240834216</v>
+        <v>1.030000398812975</v>
       </c>
       <c r="M4">
-        <v>0.9391396802891842</v>
+        <v>1.045506511882603</v>
       </c>
       <c r="N4">
-        <v>0.9328002387419725</v>
+        <v>1.015458684728678</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9172694544626814</v>
+        <v>1.017972048101646</v>
       </c>
       <c r="D5">
-        <v>0.9252834336501634</v>
+        <v>1.029889587549436</v>
       </c>
       <c r="E5">
-        <v>0.9351628194763294</v>
+        <v>1.02134499593009</v>
       </c>
       <c r="F5">
-        <v>0.935652920375046</v>
+        <v>1.037205671064984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.054874281491681</v>
+      </c>
       <c r="J5">
-        <v>0.9385341793603533</v>
+        <v>1.036483821896501</v>
       </c>
       <c r="K5">
-        <v>0.9361260810406827</v>
+        <v>1.039424271318267</v>
       </c>
       <c r="L5">
-        <v>0.9458661644703208</v>
+        <v>1.03097413647588</v>
       </c>
       <c r="M5">
-        <v>0.9463494514238816</v>
+        <v>1.046660994863728</v>
       </c>
       <c r="N5">
-        <v>0.9398670055464201</v>
+        <v>1.015796289806589</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.918552872850833</v>
+        <v>1.018218825462891</v>
       </c>
       <c r="D6">
-        <v>0.9265213282061586</v>
+        <v>1.030103113843599</v>
       </c>
       <c r="E6">
-        <v>0.9363285643719075</v>
+        <v>1.021546591454876</v>
       </c>
       <c r="F6">
-        <v>0.9368924640547335</v>
+        <v>1.037436962168681</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.054947297734956</v>
+      </c>
       <c r="J6">
-        <v>0.9396900650758584</v>
+        <v>1.036650461848518</v>
       </c>
       <c r="K6">
-        <v>0.9373044615983029</v>
+        <v>1.039599222363142</v>
       </c>
       <c r="L6">
-        <v>0.9469744697579365</v>
+        <v>1.031136836746796</v>
       </c>
       <c r="M6">
-        <v>0.947530589163788</v>
+        <v>1.046853899762957</v>
       </c>
       <c r="N6">
-        <v>0.9410245327522233</v>
+        <v>1.015852681011157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9095414428649835</v>
+        <v>1.016515107370887</v>
       </c>
       <c r="D7">
-        <v>0.917831118945281</v>
+        <v>1.028629356046046</v>
       </c>
       <c r="E7">
-        <v>0.9281450261505617</v>
+        <v>1.020155280044952</v>
       </c>
       <c r="F7">
-        <v>0.9281914008668367</v>
+        <v>1.035840584485671</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.054441850616625</v>
+      </c>
       <c r="J7">
-        <v>0.9315737539538397</v>
+        <v>1.03549964634294</v>
       </c>
       <c r="K7">
-        <v>0.9290306574182341</v>
+        <v>1.038391215696538</v>
       </c>
       <c r="L7">
-        <v>0.9391923758095642</v>
+        <v>1.03001346351805</v>
       </c>
       <c r="M7">
-        <v>0.9392380759221285</v>
+        <v>1.045522001381552</v>
       </c>
       <c r="N7">
-        <v>0.9328966955374571</v>
+        <v>1.015463215652437</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.8658817868848285</v>
+        <v>1.009217503143755</v>
       </c>
       <c r="D8">
-        <v>0.8757844069553519</v>
+        <v>1.022327220518971</v>
       </c>
       <c r="E8">
-        <v>0.8885623037000315</v>
+        <v>1.014208293546777</v>
       </c>
       <c r="F8">
-        <v>0.8861172387656292</v>
+        <v>1.029013866679241</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.052243082690274</v>
+      </c>
       <c r="J8">
-        <v>0.8922519996941773</v>
+        <v>1.030561662580703</v>
       </c>
       <c r="K8">
-        <v>0.8889588950647168</v>
+        <v>1.033213015614203</v>
       </c>
       <c r="L8">
-        <v>0.9014981141051909</v>
+        <v>1.025199183370799</v>
       </c>
       <c r="M8">
-        <v>0.8990980262917531</v>
+        <v>1.039814661256494</v>
       </c>
       <c r="N8">
-        <v>0.8935190998764779</v>
+        <v>1.013791420851017</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.707151120964304</v>
+        <v>0.9956287267566237</v>
       </c>
       <c r="D9">
-        <v>0.7240466289995011</v>
+        <v>1.010636521342438</v>
       </c>
       <c r="E9">
-        <v>0.7462790042391598</v>
+        <v>1.003186997924611</v>
       </c>
       <c r="F9">
-        <v>0.7347389249110139</v>
+        <v>1.016348655171434</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.048022746888685</v>
+      </c>
       <c r="J9">
-        <v>0.7499870977992197</v>
+        <v>1.021336795910486</v>
       </c>
       <c r="K9">
-        <v>0.7440668669446331</v>
+        <v>1.023559353769859</v>
       </c>
       <c r="L9">
-        <v>0.7654736949436652</v>
+        <v>1.016228579069542</v>
       </c>
       <c r="M9">
-        <v>0.7543533566871028</v>
+        <v>1.029181940831709</v>
       </c>
       <c r="N9">
-        <v>0.7510521655028172</v>
+        <v>1.010666204314959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.707151120964304</v>
+        <v>0.9860112446968452</v>
       </c>
       <c r="D10">
-        <v>0.7240466289995011</v>
+        <v>1.002396830847188</v>
       </c>
       <c r="E10">
-        <v>0.7462790042391598</v>
+        <v>0.9954269476049277</v>
       </c>
       <c r="F10">
-        <v>0.7347389249110139</v>
+        <v>1.00742066204026</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.044954312999603</v>
+      </c>
       <c r="J10">
-        <v>0.7499870977992197</v>
+        <v>1.014791081133556</v>
       </c>
       <c r="K10">
-        <v>0.7440668669446331</v>
+        <v>1.016722944203367</v>
       </c>
       <c r="L10">
-        <v>0.7654736949436652</v>
+        <v>1.009879263750992</v>
       </c>
       <c r="M10">
-        <v>0.7543533566871028</v>
+        <v>1.021657214379437</v>
       </c>
       <c r="N10">
-        <v>0.7510521655028172</v>
+        <v>1.008447696644863</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.707151120964304</v>
+        <v>0.9816973762180148</v>
       </c>
       <c r="D11">
-        <v>0.7240466289995011</v>
+        <v>0.9987101836820645</v>
       </c>
       <c r="E11">
-        <v>0.7462790042391598</v>
+        <v>0.9919569257224186</v>
       </c>
       <c r="F11">
-        <v>0.7347389249110139</v>
+        <v>1.003425580931921</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.043559606746535</v>
+      </c>
       <c r="J11">
-        <v>0.7499870977992197</v>
+        <v>1.011851898208778</v>
       </c>
       <c r="K11">
-        <v>0.7440668669446331</v>
+        <v>1.013656465110253</v>
       </c>
       <c r="L11">
-        <v>0.7654736949436652</v>
+        <v>1.007032133526497</v>
       </c>
       <c r="M11">
-        <v>0.7543533566871028</v>
+        <v>1.018283183670257</v>
       </c>
       <c r="N11">
-        <v>0.7510521655028172</v>
+        <v>1.007451418351229</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.707151120964304</v>
+        <v>0.9800709557082243</v>
       </c>
       <c r="D12">
-        <v>0.7240466289995011</v>
+        <v>0.9973217216384612</v>
       </c>
       <c r="E12">
-        <v>0.7462790042391598</v>
+        <v>0.9906503676326066</v>
       </c>
       <c r="F12">
-        <v>0.7347389249110139</v>
+        <v>1.001920874942736</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.043031098736307</v>
+      </c>
       <c r="J12">
-        <v>0.7499870977992197</v>
+        <v>1.010743369801191</v>
       </c>
       <c r="K12">
-        <v>0.7440668669446331</v>
+        <v>1.01250041374767</v>
       </c>
       <c r="L12">
-        <v>0.7654736949436652</v>
+        <v>1.005958911056654</v>
       </c>
       <c r="M12">
-        <v>0.7543533566871028</v>
+        <v>1.017011366317802</v>
       </c>
       <c r="N12">
-        <v>0.7510521655028172</v>
+        <v>1.007075658995897</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.707151120964304</v>
+        <v>0.9804209445644518</v>
       </c>
       <c r="D13">
-        <v>0.7240466289995011</v>
+        <v>0.9976204356977745</v>
       </c>
       <c r="E13">
-        <v>0.7462790042391598</v>
+        <v>0.9909314462089941</v>
       </c>
       <c r="F13">
-        <v>0.7347389249110139</v>
+        <v>1.002244601634779</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.043144947491465</v>
+      </c>
       <c r="J13">
-        <v>0.7499870977992197</v>
+        <v>1.010981930108838</v>
       </c>
       <c r="K13">
-        <v>0.7440668669446331</v>
+        <v>1.012749179162117</v>
       </c>
       <c r="L13">
-        <v>0.7654736949436652</v>
+        <v>1.006189846700644</v>
       </c>
       <c r="M13">
-        <v>0.7543533566871028</v>
+        <v>1.017285034754519</v>
       </c>
       <c r="N13">
-        <v>0.7510521655028172</v>
+        <v>1.007156524292377</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.707151120964304</v>
+        <v>0.9815634363937576</v>
       </c>
       <c r="D14">
-        <v>0.7240466289995011</v>
+        <v>0.998595809645514</v>
       </c>
       <c r="E14">
-        <v>0.7462790042391598</v>
+        <v>0.9918492919297877</v>
       </c>
       <c r="F14">
-        <v>0.7347389249110139</v>
+        <v>1.003301633072834</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.043516136554918</v>
+      </c>
       <c r="J14">
-        <v>0.7499870977992197</v>
+        <v>1.011760615629125</v>
       </c>
       <c r="K14">
-        <v>0.7440668669446331</v>
+        <v>1.01356125930935</v>
       </c>
       <c r="L14">
-        <v>0.7654736949436652</v>
+        <v>1.006943746262525</v>
       </c>
       <c r="M14">
-        <v>0.7543533566871028</v>
+        <v>1.018178440386796</v>
       </c>
       <c r="N14">
-        <v>0.7510521655028172</v>
+        <v>1.007420476273318</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.707151120964304</v>
+        <v>0.9822641247987564</v>
       </c>
       <c r="D15">
-        <v>0.7240466289995011</v>
+        <v>0.9991942031820649</v>
       </c>
       <c r="E15">
-        <v>0.7462790042391598</v>
+        <v>0.9924124342544787</v>
       </c>
       <c r="F15">
-        <v>0.7347389249110139</v>
+        <v>1.003950112492812</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.043743436770529</v>
+      </c>
       <c r="J15">
-        <v>0.7499870977992197</v>
+        <v>1.012238132773855</v>
       </c>
       <c r="K15">
-        <v>0.7440668669446331</v>
+        <v>1.014059319449655</v>
       </c>
       <c r="L15">
-        <v>0.7654736949436652</v>
+        <v>1.007406141409227</v>
       </c>
       <c r="M15">
-        <v>0.7543533566871028</v>
+        <v>1.018726402289532</v>
       </c>
       <c r="N15">
-        <v>0.7510521655028172</v>
+        <v>1.007582340118122</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.707151120964304</v>
+        <v>0.9862942597819843</v>
       </c>
       <c r="D16">
-        <v>0.7240466289995011</v>
+        <v>1.002638896090725</v>
       </c>
       <c r="E16">
-        <v>0.7462790042391598</v>
+        <v>0.9956548325108707</v>
       </c>
       <c r="F16">
-        <v>0.7347389249110139</v>
+        <v>1.007682968356266</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.045045439392899</v>
+      </c>
       <c r="J16">
-        <v>0.7499870977992197</v>
+        <v>1.014983850015554</v>
       </c>
       <c r="K16">
-        <v>0.7440668669446331</v>
+        <v>1.016924129180597</v>
       </c>
       <c r="L16">
-        <v>0.7654736949436652</v>
+        <v>1.010066076105681</v>
       </c>
       <c r="M16">
-        <v>0.7543533566871028</v>
+        <v>1.021878601977387</v>
       </c>
       <c r="N16">
-        <v>0.7510521655028172</v>
+        <v>1.008513036833515</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.707151120964304</v>
+        <v>0.9887811611615889</v>
       </c>
       <c r="D17">
-        <v>0.7240466289995011</v>
+        <v>1.004767020759081</v>
       </c>
       <c r="E17">
-        <v>0.7462790042391598</v>
+        <v>0.997658521538306</v>
       </c>
       <c r="F17">
-        <v>0.7347389249110139</v>
+        <v>1.009988988452772</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.045844108779708</v>
+      </c>
       <c r="J17">
-        <v>0.7499870977992197</v>
+        <v>1.016677395754366</v>
       </c>
       <c r="K17">
-        <v>0.7440668669446331</v>
+        <v>1.018691979929557</v>
       </c>
       <c r="L17">
-        <v>0.7654736949436652</v>
+        <v>1.011707730286794</v>
       </c>
       <c r="M17">
-        <v>0.7543533566871028</v>
+        <v>1.023824112383931</v>
       </c>
       <c r="N17">
-        <v>0.7510521655028172</v>
+        <v>1.009087062568496</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.707151120964304</v>
+        <v>0.9902174265649493</v>
       </c>
       <c r="D18">
-        <v>0.7240466289995011</v>
+        <v>1.005996945393318</v>
       </c>
       <c r="E18">
-        <v>0.7462790042391598</v>
+        <v>0.9988167203310512</v>
       </c>
       <c r="F18">
-        <v>0.7347389249110139</v>
+        <v>1.011321681976485</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.046303624011719</v>
+      </c>
       <c r="J18">
-        <v>0.7499870977992197</v>
+        <v>1.017655170934602</v>
       </c>
       <c r="K18">
-        <v>0.7440668669446331</v>
+        <v>1.019712960461844</v>
       </c>
       <c r="L18">
-        <v>0.7654736949436652</v>
+        <v>1.012655910030122</v>
       </c>
       <c r="M18">
-        <v>0.7543533566871028</v>
+        <v>1.024947808785705</v>
       </c>
       <c r="N18">
-        <v>0.7510521655028172</v>
+        <v>1.009418467029048</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.707151120964304</v>
+        <v>0.9907047764258184</v>
       </c>
       <c r="D19">
-        <v>0.7240466289995011</v>
+        <v>1.006414424078323</v>
       </c>
       <c r="E19">
-        <v>0.7462790042391598</v>
+        <v>0.9992098846503837</v>
       </c>
       <c r="F19">
-        <v>0.7347389249110139</v>
+        <v>1.011774036867</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.046459247542352</v>
+      </c>
       <c r="J19">
-        <v>0.7499870977992197</v>
+        <v>1.017986893650928</v>
       </c>
       <c r="K19">
-        <v>0.7440668669446331</v>
+        <v>1.020059392848899</v>
       </c>
       <c r="L19">
-        <v>0.7654736949436652</v>
+        <v>1.012977653722878</v>
       </c>
       <c r="M19">
-        <v>0.7543533566871028</v>
+        <v>1.025329113154706</v>
       </c>
       <c r="N19">
-        <v>0.7510521655028172</v>
+        <v>1.009530897993657</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.707151120964304</v>
+        <v>0.9885158306426233</v>
       </c>
       <c r="D20">
-        <v>0.7240466289995011</v>
+        <v>1.004539878154484</v>
       </c>
       <c r="E20">
-        <v>0.7462790042391598</v>
+        <v>0.9974446405558184</v>
       </c>
       <c r="F20">
-        <v>0.7347389249110139</v>
+        <v>1.009742863023982</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.045759078045621</v>
+      </c>
       <c r="J20">
-        <v>0.7499870977992197</v>
+        <v>1.016496740117004</v>
       </c>
       <c r="K20">
-        <v>0.7440668669446331</v>
+        <v>1.018503366262391</v>
       </c>
       <c r="L20">
-        <v>0.7654736949436652</v>
+        <v>1.011532572195002</v>
       </c>
       <c r="M20">
-        <v>0.7543533566871028</v>
+        <v>1.023616532333274</v>
       </c>
       <c r="N20">
-        <v>0.7510521655028172</v>
+        <v>1.009025830639589</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.707151120964304</v>
+        <v>0.9812276788066492</v>
       </c>
       <c r="D21">
-        <v>0.7240466289995011</v>
+        <v>0.9983091233799898</v>
       </c>
       <c r="E21">
-        <v>0.7462790042391598</v>
+        <v>0.9915795057259992</v>
       </c>
       <c r="F21">
-        <v>0.7347389249110139</v>
+        <v>1.00299094801655</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.043407123641376</v>
+      </c>
       <c r="J21">
-        <v>0.7499870977992197</v>
+        <v>1.01153178428022</v>
       </c>
       <c r="K21">
-        <v>0.7440668669446331</v>
+        <v>1.013322600902452</v>
       </c>
       <c r="L21">
-        <v>0.7654736949436652</v>
+        <v>1.006722182509376</v>
       </c>
       <c r="M21">
-        <v>0.7543533566871028</v>
+        <v>1.01791587666565</v>
       </c>
       <c r="N21">
-        <v>0.7510521655028172</v>
+        <v>1.0073429091652</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.707151120964304</v>
+        <v>0.9765052271941447</v>
       </c>
       <c r="D22">
-        <v>0.7240466289995011</v>
+        <v>0.9942805327352803</v>
       </c>
       <c r="E22">
-        <v>0.7462790042391598</v>
+        <v>0.9877891794482823</v>
       </c>
       <c r="F22">
-        <v>0.7347389249110139</v>
+        <v>0.9986249099682264</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.041867586042435</v>
+      </c>
       <c r="J22">
-        <v>0.7499870977992197</v>
+        <v>1.008312422538231</v>
       </c>
       <c r="K22">
-        <v>0.7440668669446331</v>
+        <v>1.0099661512955</v>
       </c>
       <c r="L22">
-        <v>0.7654736949436652</v>
+        <v>1.003606479211534</v>
       </c>
       <c r="M22">
-        <v>0.7543533566871028</v>
+        <v>1.014223656967697</v>
       </c>
       <c r="N22">
-        <v>0.7510521655028172</v>
+        <v>1.006251634300836</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.707151120964304</v>
+        <v>0.9790225456636416</v>
       </c>
       <c r="D23">
-        <v>0.7240466289995011</v>
+        <v>0.9964271331635075</v>
       </c>
       <c r="E23">
-        <v>0.7462790042391598</v>
+        <v>0.9898086417978196</v>
       </c>
       <c r="F23">
-        <v>0.7347389249110139</v>
+        <v>1.000951365778172</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.042689673876715</v>
+      </c>
       <c r="J23">
-        <v>0.7499870977992197</v>
+        <v>1.010028698439952</v>
       </c>
       <c r="K23">
-        <v>0.7440668669446331</v>
+        <v>1.011755241867569</v>
       </c>
       <c r="L23">
-        <v>0.7654736949436652</v>
+        <v>1.005267168168779</v>
       </c>
       <c r="M23">
-        <v>0.7543533566871028</v>
+        <v>1.016191624339031</v>
       </c>
       <c r="N23">
-        <v>0.7510521655028172</v>
+        <v>1.006833404948696</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.707151120964304</v>
+        <v>0.9886357661621658</v>
       </c>
       <c r="D24">
-        <v>0.7240466289995011</v>
+        <v>1.004642549180357</v>
       </c>
       <c r="E24">
-        <v>0.7462790042391598</v>
+        <v>0.9975413165893643</v>
       </c>
       <c r="F24">
-        <v>0.7347389249110139</v>
+        <v>1.009854114635726</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.045797519312524</v>
+      </c>
       <c r="J24">
-        <v>0.7499870977992197</v>
+        <v>1.01657840157796</v>
       </c>
       <c r="K24">
-        <v>0.7440668669446331</v>
+        <v>1.018588624031364</v>
       </c>
       <c r="L24">
-        <v>0.7654736949436652</v>
+        <v>1.011611747479486</v>
       </c>
       <c r="M24">
-        <v>0.7543533566871028</v>
+        <v>1.023710362999406</v>
       </c>
       <c r="N24">
-        <v>0.7510521655028172</v>
+        <v>1.009053509240888</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.707151120964304</v>
+        <v>0.9992348292048507</v>
       </c>
       <c r="D25">
-        <v>0.7240466289995011</v>
+        <v>1.013733347805983</v>
       </c>
       <c r="E25">
-        <v>0.7462790042391598</v>
+        <v>1.006105205396369</v>
       </c>
       <c r="F25">
-        <v>0.7347389249110139</v>
+        <v>1.019703838741001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.049156974020094</v>
+      </c>
       <c r="J25">
-        <v>0.7499870977992197</v>
+        <v>1.023787971867359</v>
       </c>
       <c r="K25">
-        <v>0.7440668669446331</v>
+        <v>1.026122147388365</v>
       </c>
       <c r="L25">
-        <v>0.7654736949436652</v>
+        <v>1.018609479480764</v>
       </c>
       <c r="M25">
-        <v>0.7543533566871028</v>
+        <v>1.032003788745376</v>
       </c>
       <c r="N25">
-        <v>0.7510521655028172</v>
+        <v>1.011496812514445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007291596738164</v>
+        <v>1.041975869641576</v>
       </c>
       <c r="D2">
-        <v>1.020666830469162</v>
+        <v>1.049034107013959</v>
       </c>
       <c r="E2">
-        <v>1.012642153730476</v>
+        <v>1.040167714461241</v>
       </c>
       <c r="F2">
-        <v>1.027215192627805</v>
+        <v>1.057516302088566</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05165431795539</v>
+        <v>1.039430768745064</v>
       </c>
       <c r="J2">
-        <v>1.029256383347777</v>
+        <v>1.047054180259533</v>
       </c>
       <c r="K2">
-        <v>1.03184556042399</v>
+        <v>1.051792290542114</v>
       </c>
       <c r="L2">
-        <v>1.023928128691646</v>
+        <v>1.042950830137768</v>
       </c>
       <c r="M2">
-        <v>1.038307962744843</v>
+        <v>1.060251057777758</v>
       </c>
       <c r="N2">
-        <v>1.013349355695933</v>
+        <v>1.019541078125463</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012933824700776</v>
+        <v>1.043135185872939</v>
       </c>
       <c r="D3">
-        <v>1.025534487104751</v>
+        <v>1.050081092895724</v>
       </c>
       <c r="E3">
-        <v>1.017234300847919</v>
+        <v>1.041158675696671</v>
       </c>
       <c r="F3">
-        <v>1.032488153858965</v>
+        <v>1.058655087041409</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053369411003046</v>
+        <v>1.039678457180744</v>
       </c>
       <c r="J3">
-        <v>1.033078004695752</v>
+        <v>1.047858701676387</v>
       </c>
       <c r="K3">
-        <v>1.035850750217081</v>
+        <v>1.05265083460236</v>
       </c>
       <c r="L3">
-        <v>1.027651314134353</v>
+        <v>1.043751684027528</v>
       </c>
       <c r="M3">
-        <v>1.042721556165726</v>
+        <v>1.061202869151823</v>
       </c>
       <c r="N3">
-        <v>1.014643472313314</v>
+        <v>1.019810979323055</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016495295594346</v>
+        <v>1.043884949076658</v>
       </c>
       <c r="D4">
-        <v>1.028612223859236</v>
+        <v>1.050758476351873</v>
       </c>
       <c r="E4">
-        <v>1.020139107657051</v>
+        <v>1.041799912646078</v>
       </c>
       <c r="F4">
-        <v>1.035822026760252</v>
+        <v>1.0593918905822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054435954576246</v>
+        <v>1.039836649178255</v>
       </c>
       <c r="J4">
-        <v>1.035486259203338</v>
+        <v>1.048378356864655</v>
       </c>
       <c r="K4">
-        <v>1.038377166066767</v>
+        <v>1.053205682514951</v>
       </c>
       <c r="L4">
-        <v>1.030000398812975</v>
+        <v>1.044269297905248</v>
       </c>
       <c r="M4">
-        <v>1.045506511882603</v>
+        <v>1.061818104173962</v>
       </c>
       <c r="N4">
-        <v>1.015458684728678</v>
+        <v>1.019985225648882</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017972048101646</v>
+        <v>1.044200057025434</v>
       </c>
       <c r="D5">
-        <v>1.029889587549436</v>
+        <v>1.051043228251818</v>
       </c>
       <c r="E5">
-        <v>1.02134499593009</v>
+        <v>1.042069493580807</v>
       </c>
       <c r="F5">
-        <v>1.037205671064984</v>
+        <v>1.059701627607325</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054874281491681</v>
+        <v>1.039902655405306</v>
       </c>
       <c r="J5">
-        <v>1.036483821896501</v>
+        <v>1.048596599257871</v>
       </c>
       <c r="K5">
-        <v>1.039424271318267</v>
+        <v>1.053438776537513</v>
       </c>
       <c r="L5">
-        <v>1.03097413647588</v>
+        <v>1.044486761476266</v>
       </c>
       <c r="M5">
-        <v>1.046660994863728</v>
+        <v>1.06207659383219</v>
       </c>
       <c r="N5">
-        <v>1.015796289806589</v>
+        <v>1.020058383692768</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018218825462891</v>
+        <v>1.044252959650586</v>
       </c>
       <c r="D6">
-        <v>1.030103113843599</v>
+        <v>1.051091038186652</v>
       </c>
       <c r="E6">
-        <v>1.021546591454876</v>
+        <v>1.042114757706865</v>
       </c>
       <c r="F6">
-        <v>1.037436962168681</v>
+        <v>1.059753632947464</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054947297734956</v>
+        <v>1.039913708957117</v>
       </c>
       <c r="J6">
-        <v>1.036650461848518</v>
+        <v>1.048633230192977</v>
       </c>
       <c r="K6">
-        <v>1.039599222363142</v>
+        <v>1.053477904446027</v>
       </c>
       <c r="L6">
-        <v>1.031136836746796</v>
+        <v>1.044523266293777</v>
       </c>
       <c r="M6">
-        <v>1.046853899762957</v>
+        <v>1.062119986302884</v>
       </c>
       <c r="N6">
-        <v>1.015852681011157</v>
+        <v>1.020070661676359</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016515107370887</v>
+        <v>1.043889159926318</v>
       </c>
       <c r="D7">
-        <v>1.028629356046046</v>
+        <v>1.050762281298982</v>
       </c>
       <c r="E7">
-        <v>1.020155280044952</v>
+        <v>1.041803514779865</v>
       </c>
       <c r="F7">
-        <v>1.035840584485671</v>
+        <v>1.059396029362254</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054441850616625</v>
+        <v>1.039837533112255</v>
       </c>
       <c r="J7">
-        <v>1.03549964634294</v>
+        <v>1.04838127389652</v>
       </c>
       <c r="K7">
-        <v>1.038391215696538</v>
+        <v>1.053208797772585</v>
       </c>
       <c r="L7">
-        <v>1.03001346351805</v>
+        <v>1.044272204218798</v>
       </c>
       <c r="M7">
-        <v>1.045522001381552</v>
+        <v>1.061821558734304</v>
       </c>
       <c r="N7">
-        <v>1.015463215652437</v>
+        <v>1.019986203563822</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009217503143755</v>
+        <v>1.042367747938666</v>
       </c>
       <c r="D8">
-        <v>1.022327220518971</v>
+        <v>1.049387959042641</v>
       </c>
       <c r="E8">
-        <v>1.014208293546777</v>
+        <v>1.040502610825296</v>
       </c>
       <c r="F8">
-        <v>1.029013866679241</v>
+        <v>1.057901174001034</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052243082690274</v>
+        <v>1.039514906695736</v>
       </c>
       <c r="J8">
-        <v>1.030561662580703</v>
+        <v>1.047326263686803</v>
       </c>
       <c r="K8">
-        <v>1.033213015614203</v>
+        <v>1.052082582212811</v>
       </c>
       <c r="L8">
-        <v>1.025199183370799</v>
+        <v>1.043221605343265</v>
       </c>
       <c r="M8">
-        <v>1.039814661256494</v>
+        <v>1.060572861963024</v>
       </c>
       <c r="N8">
-        <v>1.013791420851017</v>
+        <v>1.019632374939599</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9956287267566237</v>
+        <v>1.039683763980417</v>
       </c>
       <c r="D9">
-        <v>1.010636521342438</v>
+        <v>1.046965538709641</v>
       </c>
       <c r="E9">
-        <v>1.003186997924611</v>
+        <v>1.03821037550059</v>
       </c>
       <c r="F9">
-        <v>1.016348655171434</v>
+        <v>1.055266505129249</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048022746888685</v>
+        <v>1.038930473396578</v>
       </c>
       <c r="J9">
-        <v>1.021336795910486</v>
+        <v>1.045460098900504</v>
       </c>
       <c r="K9">
-        <v>1.023559353769859</v>
+        <v>1.050092755578374</v>
       </c>
       <c r="L9">
-        <v>1.016228579069542</v>
+        <v>1.041365759568871</v>
       </c>
       <c r="M9">
-        <v>1.029181940831709</v>
+        <v>1.058367487972369</v>
       </c>
       <c r="N9">
-        <v>1.010666204314959</v>
+        <v>1.019005831285246</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9860112446968452</v>
+        <v>1.037892295753096</v>
       </c>
       <c r="D10">
-        <v>1.002396830847188</v>
+        <v>1.045350087305054</v>
       </c>
       <c r="E10">
-        <v>0.9954269476049277</v>
+        <v>1.03668227031211</v>
       </c>
       <c r="F10">
-        <v>1.00742066204026</v>
+        <v>1.053509643607718</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044954312999603</v>
+        <v>1.038530139823522</v>
       </c>
       <c r="J10">
-        <v>1.014791081133556</v>
+        <v>1.044211175266681</v>
       </c>
       <c r="K10">
-        <v>1.016722944203367</v>
+        <v>1.048762608407838</v>
       </c>
       <c r="L10">
-        <v>1.009879263750992</v>
+        <v>1.040125432984886</v>
       </c>
       <c r="M10">
-        <v>1.021657214379437</v>
+        <v>1.056893827040334</v>
       </c>
       <c r="N10">
-        <v>1.008447696644863</v>
+        <v>1.018586074062078</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9816973762180148</v>
+        <v>1.037116040955934</v>
       </c>
       <c r="D11">
-        <v>0.9987101836820645</v>
+        <v>1.044650449076259</v>
       </c>
       <c r="E11">
-        <v>0.9919569257224186</v>
+        <v>1.036020588118196</v>
       </c>
       <c r="F11">
-        <v>1.003425580931921</v>
+        <v>1.052748792181406</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043559606746535</v>
+        <v>1.038354248614126</v>
       </c>
       <c r="J11">
-        <v>1.011851898208778</v>
+        <v>1.043669226190395</v>
       </c>
       <c r="K11">
-        <v>1.013656465110253</v>
+        <v>1.048185777454769</v>
       </c>
       <c r="L11">
-        <v>1.007032133526497</v>
+        <v>1.039587615351635</v>
       </c>
       <c r="M11">
-        <v>1.018283183670257</v>
+        <v>1.056254895839991</v>
       </c>
       <c r="N11">
-        <v>1.007451418351229</v>
+        <v>1.018403823205606</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9800709557082243</v>
+        <v>1.036827622774995</v>
       </c>
       <c r="D12">
-        <v>0.9973217216384612</v>
+        <v>1.044390550683542</v>
       </c>
       <c r="E12">
-        <v>0.9906503676326066</v>
+        <v>1.035774808699028</v>
       </c>
       <c r="F12">
-        <v>1.001920874942736</v>
+        <v>1.052466159042067</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043031098736307</v>
+        <v>1.038288532315192</v>
       </c>
       <c r="J12">
-        <v>1.010743369801191</v>
+        <v>1.043467747421451</v>
       </c>
       <c r="K12">
-        <v>1.01250041374767</v>
+        <v>1.047971385339609</v>
       </c>
       <c r="L12">
-        <v>1.005958911056654</v>
+        <v>1.039387732740934</v>
       </c>
       <c r="M12">
-        <v>1.017011366317802</v>
+        <v>1.056017443169771</v>
       </c>
       <c r="N12">
-        <v>1.007075658995897</v>
+        <v>1.018336052775041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9804209445644518</v>
+        <v>1.036889493221266</v>
       </c>
       <c r="D13">
-        <v>0.9976204356977745</v>
+        <v>1.044446300764843</v>
       </c>
       <c r="E13">
-        <v>0.9909314462089941</v>
+        <v>1.035827529285693</v>
       </c>
       <c r="F13">
-        <v>1.002244601634779</v>
+        <v>1.052526785690908</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043144947491465</v>
+        <v>1.038302645996086</v>
       </c>
       <c r="J13">
-        <v>1.010981930108838</v>
+        <v>1.043510973224413</v>
       </c>
       <c r="K13">
-        <v>1.012749179162117</v>
+        <v>1.048017379138133</v>
       </c>
       <c r="L13">
-        <v>1.006189846700644</v>
+        <v>1.039430613374896</v>
       </c>
       <c r="M13">
-        <v>1.017285034754519</v>
+        <v>1.056068383254671</v>
       </c>
       <c r="N13">
-        <v>1.007156524292377</v>
+        <v>1.018350593130869</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9815634363937576</v>
+        <v>1.037092201914735</v>
       </c>
       <c r="D14">
-        <v>0.998595809645514</v>
+        <v>1.044628966240581</v>
       </c>
       <c r="E14">
-        <v>0.9918492919297877</v>
+        <v>1.036000271943726</v>
       </c>
       <c r="F14">
-        <v>1.003301633072834</v>
+        <v>1.052725430033357</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043516136554918</v>
+        <v>1.038348824288119</v>
       </c>
       <c r="J14">
-        <v>1.011760615629125</v>
+        <v>1.043652575462859</v>
       </c>
       <c r="K14">
-        <v>1.01356125930935</v>
+        <v>1.048168058421967</v>
       </c>
       <c r="L14">
-        <v>1.006943746262525</v>
+        <v>1.039571095306555</v>
       </c>
       <c r="M14">
-        <v>1.018178440386796</v>
+        <v>1.05623527048772</v>
       </c>
       <c r="N14">
-        <v>1.007420476273318</v>
+        <v>1.018398222798795</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9822641247987564</v>
+        <v>1.037217086431291</v>
       </c>
       <c r="D15">
-        <v>0.9991942031820649</v>
+        <v>1.044741509576074</v>
       </c>
       <c r="E15">
-        <v>0.9924124342544787</v>
+        <v>1.036106704214487</v>
       </c>
       <c r="F15">
-        <v>1.003950112492812</v>
+        <v>1.052847818809549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043743436770529</v>
+        <v>1.038377225569167</v>
       </c>
       <c r="J15">
-        <v>1.012238132773855</v>
+        <v>1.043739798090832</v>
       </c>
       <c r="K15">
-        <v>1.014059319449655</v>
+        <v>1.048260879459605</v>
       </c>
       <c r="L15">
-        <v>1.007406141409227</v>
+        <v>1.039657635837237</v>
       </c>
       <c r="M15">
-        <v>1.018726402289532</v>
+        <v>1.056338078602125</v>
       </c>
       <c r="N15">
-        <v>1.007582340118122</v>
+        <v>1.018427559149891</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9862942597819843</v>
+        <v>1.037943801748895</v>
       </c>
       <c r="D16">
-        <v>1.002638896090725</v>
+        <v>1.045396517015889</v>
       </c>
       <c r="E16">
-        <v>0.9956548325108707</v>
+        <v>1.036726183857554</v>
       </c>
       <c r="F16">
-        <v>1.007682968356266</v>
+        <v>1.053560136206456</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045045439392899</v>
+        <v>1.038541759521132</v>
       </c>
       <c r="J16">
-        <v>1.014983850015554</v>
+        <v>1.044247118187384</v>
       </c>
       <c r="K16">
-        <v>1.016924129180597</v>
+        <v>1.048800872401098</v>
       </c>
       <c r="L16">
-        <v>1.010066076105681</v>
+        <v>1.040161110340616</v>
       </c>
       <c r="M16">
-        <v>1.021878601977387</v>
+        <v>1.056936213302881</v>
       </c>
       <c r="N16">
-        <v>1.008513036833515</v>
+        <v>1.018598159038694</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9887811611615889</v>
+        <v>1.038399505916844</v>
       </c>
       <c r="D17">
-        <v>1.004767020759081</v>
+        <v>1.045807348464548</v>
       </c>
       <c r="E17">
-        <v>0.997658521538306</v>
+        <v>1.037114765819526</v>
       </c>
       <c r="F17">
-        <v>1.009988988452772</v>
+        <v>1.054006921446063</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045844108779708</v>
+        <v>1.038644286015723</v>
       </c>
       <c r="J17">
-        <v>1.016677395754366</v>
+        <v>1.044565036285078</v>
       </c>
       <c r="K17">
-        <v>1.018691979929557</v>
+        <v>1.049139362537243</v>
       </c>
       <c r="L17">
-        <v>1.011707730286794</v>
+        <v>1.040476725754611</v>
       </c>
       <c r="M17">
-        <v>1.023824112383931</v>
+        <v>1.057311185450935</v>
       </c>
       <c r="N17">
-        <v>1.009087062568496</v>
+        <v>1.018705039621304</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9902174265649493</v>
+        <v>1.038665258739171</v>
       </c>
       <c r="D18">
-        <v>1.005996945393318</v>
+        <v>1.046046966336627</v>
       </c>
       <c r="E18">
-        <v>0.9988167203310512</v>
+        <v>1.037341418910956</v>
       </c>
       <c r="F18">
-        <v>1.011321681976485</v>
+        <v>1.054267512336244</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046303624011719</v>
+        <v>1.038703842530606</v>
       </c>
       <c r="J18">
-        <v>1.017655170934602</v>
+        <v>1.044750360972168</v>
       </c>
       <c r="K18">
-        <v>1.019712960461844</v>
+        <v>1.049336714377638</v>
       </c>
       <c r="L18">
-        <v>1.012655910030122</v>
+        <v>1.040660746765959</v>
       </c>
       <c r="M18">
-        <v>1.024947808785705</v>
+        <v>1.057529820705567</v>
       </c>
       <c r="N18">
-        <v>1.009418467029048</v>
+        <v>1.018767333686226</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9907047764258184</v>
+        <v>1.038755864870012</v>
       </c>
       <c r="D19">
-        <v>1.006414424078323</v>
+        <v>1.046128667636731</v>
       </c>
       <c r="E19">
-        <v>0.9992098846503837</v>
+        <v>1.037418701749566</v>
       </c>
       <c r="F19">
-        <v>1.011774036867</v>
+        <v>1.054356365201281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046459247542352</v>
+        <v>1.038724108137057</v>
       </c>
       <c r="J19">
-        <v>1.017986893650928</v>
+        <v>1.044813533007098</v>
       </c>
       <c r="K19">
-        <v>1.020059392848899</v>
+        <v>1.049403992081729</v>
       </c>
       <c r="L19">
-        <v>1.012977653722878</v>
+        <v>1.040723480967062</v>
       </c>
       <c r="M19">
-        <v>1.025329113154706</v>
+        <v>1.057604356197692</v>
       </c>
       <c r="N19">
-        <v>1.009530897993657</v>
+        <v>1.018788566291252</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9885158306426233</v>
+        <v>1.038350618534097</v>
       </c>
       <c r="D20">
-        <v>1.004539878154484</v>
+        <v>1.045763271506522</v>
       </c>
       <c r="E20">
-        <v>0.9974446405558184</v>
+        <v>1.037073074678054</v>
       </c>
       <c r="F20">
-        <v>1.009742863023982</v>
+        <v>1.053958986803761</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045759078045621</v>
+        <v>1.038633311283354</v>
       </c>
       <c r="J20">
-        <v>1.016496740117004</v>
+        <v>1.044530938227754</v>
       </c>
       <c r="K20">
-        <v>1.018503366262391</v>
+        <v>1.049103054416161</v>
       </c>
       <c r="L20">
-        <v>1.011532572195002</v>
+        <v>1.040442870673003</v>
       </c>
       <c r="M20">
-        <v>1.023616532333274</v>
+        <v>1.057270962734497</v>
       </c>
       <c r="N20">
-        <v>1.009025830639589</v>
+        <v>1.018693577268481</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9812276788066492</v>
+        <v>1.037032511551776</v>
       </c>
       <c r="D21">
-        <v>0.9983091233799898</v>
+        <v>1.044575176415259</v>
       </c>
       <c r="E21">
-        <v>0.9915795057259992</v>
+        <v>1.035949403575828</v>
       </c>
       <c r="F21">
-        <v>1.00299094801655</v>
+        <v>1.052666934760911</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043407123641376</v>
+        <v>1.038335236492192</v>
       </c>
       <c r="J21">
-        <v>1.01153178428022</v>
+        <v>1.043610881964582</v>
       </c>
       <c r="K21">
-        <v>1.013322600902452</v>
+        <v>1.048123690763783</v>
       </c>
       <c r="L21">
-        <v>1.006722182509376</v>
+        <v>1.039529730010406</v>
       </c>
       <c r="M21">
-        <v>1.01791587666565</v>
+        <v>1.056186129820905</v>
       </c>
       <c r="N21">
-        <v>1.0073429091652</v>
+        <v>1.018384199103104</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9765052271941447</v>
+        <v>1.036203286621689</v>
       </c>
       <c r="D22">
-        <v>0.9942805327352803</v>
+        <v>1.043828048382431</v>
       </c>
       <c r="E22">
-        <v>0.9877891794482823</v>
+        <v>1.035242899659118</v>
       </c>
       <c r="F22">
-        <v>0.9986249099682264</v>
+        <v>1.051854459585335</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041867586042435</v>
+        <v>1.038145612047236</v>
       </c>
       <c r="J22">
-        <v>1.008312422538231</v>
+        <v>1.043031394542792</v>
       </c>
       <c r="K22">
-        <v>1.0099661512955</v>
+        <v>1.0475071651607</v>
       </c>
       <c r="L22">
-        <v>1.003606479211534</v>
+        <v>1.038954946911861</v>
       </c>
       <c r="M22">
-        <v>1.014223656967697</v>
+        <v>1.055503327574019</v>
       </c>
       <c r="N22">
-        <v>1.006251634300836</v>
+        <v>1.01818925049279</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9790225456636416</v>
+        <v>1.036642920455376</v>
       </c>
       <c r="D23">
-        <v>0.9964271331635075</v>
+        <v>1.044224127322182</v>
       </c>
       <c r="E23">
-        <v>0.9898086417978196</v>
+        <v>1.035617431716226</v>
       </c>
       <c r="F23">
-        <v>1.000951365778172</v>
+        <v>1.052285178950798</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042689673876715</v>
+        <v>1.038246345403508</v>
       </c>
       <c r="J23">
-        <v>1.010028698439952</v>
+        <v>1.04333868798764</v>
       </c>
       <c r="K23">
-        <v>1.011755241867569</v>
+        <v>1.047834069480236</v>
       </c>
       <c r="L23">
-        <v>1.005267168168779</v>
+        <v>1.039259712697889</v>
       </c>
       <c r="M23">
-        <v>1.016191624339031</v>
+        <v>1.05586536300873</v>
       </c>
       <c r="N23">
-        <v>1.006833404948696</v>
+        <v>1.018292637309022</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9886357661621658</v>
+        <v>1.038372708797259</v>
       </c>
       <c r="D24">
-        <v>1.004642549180357</v>
+        <v>1.04578318802689</v>
       </c>
       <c r="E24">
-        <v>0.9975413165893643</v>
+        <v>1.037091913110595</v>
       </c>
       <c r="F24">
-        <v>1.009854114635726</v>
+        <v>1.053980646440051</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045797519312524</v>
+        <v>1.038638271050776</v>
       </c>
       <c r="J24">
-        <v>1.01657840157796</v>
+        <v>1.044546346016492</v>
       </c>
       <c r="K24">
-        <v>1.018588624031364</v>
+        <v>1.049119460751584</v>
       </c>
       <c r="L24">
-        <v>1.011611747479486</v>
+        <v>1.040458168549643</v>
       </c>
       <c r="M24">
-        <v>1.023710362999406</v>
+        <v>1.05728913789444</v>
       </c>
       <c r="N24">
-        <v>1.009053509240888</v>
+        <v>1.018698756759214</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9992348292048507</v>
+        <v>1.040378009922732</v>
       </c>
       <c r="D25">
-        <v>1.013733347805983</v>
+        <v>1.047591878287182</v>
       </c>
       <c r="E25">
-        <v>1.006105205396369</v>
+        <v>1.038802961823281</v>
       </c>
       <c r="F25">
-        <v>1.019703838741001</v>
+        <v>1.055947699680824</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049156974020094</v>
+        <v>1.039083450986031</v>
       </c>
       <c r="J25">
-        <v>1.023787971867359</v>
+        <v>1.045943392809252</v>
       </c>
       <c r="K25">
-        <v>1.026122147388365</v>
+        <v>1.050607804414758</v>
       </c>
       <c r="L25">
-        <v>1.018609479480764</v>
+        <v>1.041846083461481</v>
       </c>
       <c r="M25">
-        <v>1.032003788745376</v>
+        <v>1.058938228161684</v>
       </c>
       <c r="N25">
-        <v>1.011496812514445</v>
+        <v>1.019168170497726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041975869641576</v>
+        <v>1.007291596738163</v>
       </c>
       <c r="D2">
-        <v>1.049034107013959</v>
+        <v>1.02066683046916</v>
       </c>
       <c r="E2">
-        <v>1.040167714461241</v>
+        <v>1.012642153730474</v>
       </c>
       <c r="F2">
-        <v>1.057516302088566</v>
+        <v>1.027215192627804</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039430768745064</v>
+        <v>1.051654317955389</v>
       </c>
       <c r="J2">
-        <v>1.047054180259533</v>
+        <v>1.029256383347776</v>
       </c>
       <c r="K2">
-        <v>1.051792290542114</v>
+        <v>1.03184556042399</v>
       </c>
       <c r="L2">
-        <v>1.042950830137768</v>
+        <v>1.023928128691646</v>
       </c>
       <c r="M2">
-        <v>1.060251057777758</v>
+        <v>1.038307962744843</v>
       </c>
       <c r="N2">
-        <v>1.019541078125463</v>
+        <v>1.013349355695932</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043135185872939</v>
+        <v>1.012933824700774</v>
       </c>
       <c r="D3">
-        <v>1.050081092895724</v>
+        <v>1.02553448710475</v>
       </c>
       <c r="E3">
-        <v>1.041158675696671</v>
+        <v>1.017234300847917</v>
       </c>
       <c r="F3">
-        <v>1.058655087041409</v>
+        <v>1.032488153858963</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039678457180744</v>
+        <v>1.053369411003045</v>
       </c>
       <c r="J3">
-        <v>1.047858701676387</v>
+        <v>1.033078004695751</v>
       </c>
       <c r="K3">
-        <v>1.05265083460236</v>
+        <v>1.035850750217079</v>
       </c>
       <c r="L3">
-        <v>1.043751684027528</v>
+        <v>1.027651314134351</v>
       </c>
       <c r="M3">
-        <v>1.061202869151823</v>
+        <v>1.042721556165725</v>
       </c>
       <c r="N3">
-        <v>1.019810979323055</v>
+        <v>1.014643472313314</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043884949076658</v>
+        <v>1.016495295594346</v>
       </c>
       <c r="D4">
-        <v>1.050758476351873</v>
+        <v>1.028612223859236</v>
       </c>
       <c r="E4">
-        <v>1.041799912646078</v>
+        <v>1.020139107657051</v>
       </c>
       <c r="F4">
-        <v>1.0593918905822</v>
+        <v>1.035822026760252</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039836649178255</v>
+        <v>1.054435954576246</v>
       </c>
       <c r="J4">
-        <v>1.048378356864655</v>
+        <v>1.035486259203338</v>
       </c>
       <c r="K4">
-        <v>1.053205682514951</v>
+        <v>1.038377166066767</v>
       </c>
       <c r="L4">
-        <v>1.044269297905248</v>
+        <v>1.030000398812975</v>
       </c>
       <c r="M4">
-        <v>1.061818104173962</v>
+        <v>1.045506511882603</v>
       </c>
       <c r="N4">
-        <v>1.019985225648882</v>
+        <v>1.015458684728678</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044200057025434</v>
+        <v>1.017972048101647</v>
       </c>
       <c r="D5">
-        <v>1.051043228251818</v>
+        <v>1.029889587549436</v>
       </c>
       <c r="E5">
-        <v>1.042069493580807</v>
+        <v>1.021344995930091</v>
       </c>
       <c r="F5">
-        <v>1.059701627607325</v>
+        <v>1.037205671064984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039902655405306</v>
+        <v>1.054874281491682</v>
       </c>
       <c r="J5">
-        <v>1.048596599257871</v>
+        <v>1.036483821896502</v>
       </c>
       <c r="K5">
-        <v>1.053438776537513</v>
+        <v>1.039424271318268</v>
       </c>
       <c r="L5">
-        <v>1.044486761476266</v>
+        <v>1.03097413647588</v>
       </c>
       <c r="M5">
-        <v>1.06207659383219</v>
+        <v>1.046660994863728</v>
       </c>
       <c r="N5">
-        <v>1.020058383692768</v>
+        <v>1.015796289806589</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044252959650586</v>
+        <v>1.018218825462891</v>
       </c>
       <c r="D6">
-        <v>1.051091038186652</v>
+        <v>1.030103113843599</v>
       </c>
       <c r="E6">
-        <v>1.042114757706865</v>
+        <v>1.021546591454876</v>
       </c>
       <c r="F6">
-        <v>1.059753632947464</v>
+        <v>1.037436962168681</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039913708957117</v>
+        <v>1.054947297734955</v>
       </c>
       <c r="J6">
-        <v>1.048633230192977</v>
+        <v>1.036650461848518</v>
       </c>
       <c r="K6">
-        <v>1.053477904446027</v>
+        <v>1.039599222363141</v>
       </c>
       <c r="L6">
-        <v>1.044523266293777</v>
+        <v>1.031136836746796</v>
       </c>
       <c r="M6">
-        <v>1.062119986302884</v>
+        <v>1.046853899762956</v>
       </c>
       <c r="N6">
-        <v>1.020070661676359</v>
+        <v>1.015852681011157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043889159926318</v>
+        <v>1.016515107370887</v>
       </c>
       <c r="D7">
-        <v>1.050762281298982</v>
+        <v>1.028629356046046</v>
       </c>
       <c r="E7">
-        <v>1.041803514779865</v>
+        <v>1.020155280044952</v>
       </c>
       <c r="F7">
-        <v>1.059396029362254</v>
+        <v>1.035840584485672</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039837533112255</v>
+        <v>1.054441850616625</v>
       </c>
       <c r="J7">
-        <v>1.04838127389652</v>
+        <v>1.03549964634294</v>
       </c>
       <c r="K7">
-        <v>1.053208797772585</v>
+        <v>1.038391215696538</v>
       </c>
       <c r="L7">
-        <v>1.044272204218798</v>
+        <v>1.03001346351805</v>
       </c>
       <c r="M7">
-        <v>1.061821558734304</v>
+        <v>1.045522001381552</v>
       </c>
       <c r="N7">
-        <v>1.019986203563822</v>
+        <v>1.015463215652437</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042367747938666</v>
+        <v>1.009217503143755</v>
       </c>
       <c r="D8">
-        <v>1.049387959042641</v>
+        <v>1.022327220518972</v>
       </c>
       <c r="E8">
-        <v>1.040502610825296</v>
+        <v>1.014208293546777</v>
       </c>
       <c r="F8">
-        <v>1.057901174001034</v>
+        <v>1.029013866679241</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039514906695736</v>
+        <v>1.052243082690273</v>
       </c>
       <c r="J8">
-        <v>1.047326263686803</v>
+        <v>1.030561662580703</v>
       </c>
       <c r="K8">
-        <v>1.052082582212811</v>
+        <v>1.033213015614203</v>
       </c>
       <c r="L8">
-        <v>1.043221605343265</v>
+        <v>1.025199183370799</v>
       </c>
       <c r="M8">
-        <v>1.060572861963024</v>
+        <v>1.039814661256494</v>
       </c>
       <c r="N8">
-        <v>1.019632374939599</v>
+        <v>1.013791420851017</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039683763980417</v>
+        <v>0.9956287267566231</v>
       </c>
       <c r="D9">
-        <v>1.046965538709641</v>
+        <v>1.010636521342438</v>
       </c>
       <c r="E9">
-        <v>1.03821037550059</v>
+        <v>1.00318699792461</v>
       </c>
       <c r="F9">
-        <v>1.055266505129249</v>
+        <v>1.016348655171434</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038930473396578</v>
+        <v>1.048022746888684</v>
       </c>
       <c r="J9">
-        <v>1.045460098900504</v>
+        <v>1.021336795910485</v>
       </c>
       <c r="K9">
-        <v>1.050092755578374</v>
+        <v>1.023559353769859</v>
       </c>
       <c r="L9">
-        <v>1.041365759568871</v>
+        <v>1.016228579069542</v>
       </c>
       <c r="M9">
-        <v>1.058367487972369</v>
+        <v>1.029181940831709</v>
       </c>
       <c r="N9">
-        <v>1.019005831285246</v>
+        <v>1.010666204314959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037892295753096</v>
+        <v>0.986011244696846</v>
       </c>
       <c r="D10">
-        <v>1.045350087305054</v>
+        <v>1.002396830847189</v>
       </c>
       <c r="E10">
-        <v>1.03668227031211</v>
+        <v>0.9954269476049283</v>
       </c>
       <c r="F10">
-        <v>1.053509643607718</v>
+        <v>1.00742066204026</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038530139823522</v>
+        <v>1.044954312999603</v>
       </c>
       <c r="J10">
-        <v>1.044211175266681</v>
+        <v>1.014791081133556</v>
       </c>
       <c r="K10">
-        <v>1.048762608407838</v>
+        <v>1.016722944203367</v>
       </c>
       <c r="L10">
-        <v>1.040125432984886</v>
+        <v>1.009879263750993</v>
       </c>
       <c r="M10">
-        <v>1.056893827040334</v>
+        <v>1.021657214379438</v>
       </c>
       <c r="N10">
-        <v>1.018586074062078</v>
+        <v>1.008447696644864</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037116040955934</v>
+        <v>0.9816973762180152</v>
       </c>
       <c r="D11">
-        <v>1.044650449076259</v>
+        <v>0.9987101836820645</v>
       </c>
       <c r="E11">
-        <v>1.036020588118196</v>
+        <v>0.9919569257224184</v>
       </c>
       <c r="F11">
-        <v>1.052748792181406</v>
+        <v>1.003425580931921</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038354248614126</v>
+        <v>1.043559606746535</v>
       </c>
       <c r="J11">
-        <v>1.043669226190395</v>
+        <v>1.011851898208779</v>
       </c>
       <c r="K11">
-        <v>1.048185777454769</v>
+        <v>1.013656465110253</v>
       </c>
       <c r="L11">
-        <v>1.039587615351635</v>
+        <v>1.007032133526497</v>
       </c>
       <c r="M11">
-        <v>1.056254895839991</v>
+        <v>1.018283183670257</v>
       </c>
       <c r="N11">
-        <v>1.018403823205606</v>
+        <v>1.007451418351229</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036827622774995</v>
+        <v>0.9800709557082242</v>
       </c>
       <c r="D12">
-        <v>1.044390550683542</v>
+        <v>0.9973217216384613</v>
       </c>
       <c r="E12">
-        <v>1.035774808699028</v>
+        <v>0.9906503676326066</v>
       </c>
       <c r="F12">
-        <v>1.052466159042067</v>
+        <v>1.001920874942736</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038288532315192</v>
+        <v>1.043031098736308</v>
       </c>
       <c r="J12">
-        <v>1.043467747421451</v>
+        <v>1.010743369801191</v>
       </c>
       <c r="K12">
-        <v>1.047971385339609</v>
+        <v>1.012500413747671</v>
       </c>
       <c r="L12">
-        <v>1.039387732740934</v>
+        <v>1.005958911056654</v>
       </c>
       <c r="M12">
-        <v>1.056017443169771</v>
+        <v>1.017011366317802</v>
       </c>
       <c r="N12">
-        <v>1.018336052775041</v>
+        <v>1.007075658995897</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036889493221266</v>
+        <v>0.9804209445644519</v>
       </c>
       <c r="D13">
-        <v>1.044446300764843</v>
+        <v>0.9976204356977746</v>
       </c>
       <c r="E13">
-        <v>1.035827529285693</v>
+        <v>0.9909314462089943</v>
       </c>
       <c r="F13">
-        <v>1.052526785690908</v>
+        <v>1.002244601634779</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038302645996086</v>
+        <v>1.043144947491465</v>
       </c>
       <c r="J13">
-        <v>1.043510973224413</v>
+        <v>1.010981930108838</v>
       </c>
       <c r="K13">
-        <v>1.048017379138133</v>
+        <v>1.012749179162117</v>
       </c>
       <c r="L13">
-        <v>1.039430613374896</v>
+        <v>1.006189846700644</v>
       </c>
       <c r="M13">
-        <v>1.056068383254671</v>
+        <v>1.017285034754519</v>
       </c>
       <c r="N13">
-        <v>1.018350593130869</v>
+        <v>1.007156524292377</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037092201914735</v>
+        <v>0.9815634363937571</v>
       </c>
       <c r="D14">
-        <v>1.044628966240581</v>
+        <v>0.9985958096455134</v>
       </c>
       <c r="E14">
-        <v>1.036000271943726</v>
+        <v>0.9918492919297869</v>
       </c>
       <c r="F14">
-        <v>1.052725430033357</v>
+        <v>1.003301633072833</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038348824288119</v>
+        <v>1.043516136554917</v>
       </c>
       <c r="J14">
-        <v>1.043652575462859</v>
+        <v>1.011760615629124</v>
       </c>
       <c r="K14">
-        <v>1.048168058421967</v>
+        <v>1.013561259309349</v>
       </c>
       <c r="L14">
-        <v>1.039571095306555</v>
+        <v>1.006943746262524</v>
       </c>
       <c r="M14">
-        <v>1.05623527048772</v>
+        <v>1.018178440386796</v>
       </c>
       <c r="N14">
-        <v>1.018398222798795</v>
+        <v>1.007420476273318</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037217086431291</v>
+        <v>0.9822641247987567</v>
       </c>
       <c r="D15">
-        <v>1.044741509576074</v>
+        <v>0.9991942031820653</v>
       </c>
       <c r="E15">
-        <v>1.036106704214487</v>
+        <v>0.992412434254479</v>
       </c>
       <c r="F15">
-        <v>1.052847818809549</v>
+        <v>1.003950112492812</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038377225569167</v>
+        <v>1.043743436770529</v>
       </c>
       <c r="J15">
-        <v>1.043739798090832</v>
+        <v>1.012238132773855</v>
       </c>
       <c r="K15">
-        <v>1.048260879459605</v>
+        <v>1.014059319449656</v>
       </c>
       <c r="L15">
-        <v>1.039657635837237</v>
+        <v>1.007406141409227</v>
       </c>
       <c r="M15">
-        <v>1.056338078602125</v>
+        <v>1.018726402289532</v>
       </c>
       <c r="N15">
-        <v>1.018427559149891</v>
+        <v>1.007582340118122</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037943801748895</v>
+        <v>0.9862942597819834</v>
       </c>
       <c r="D16">
-        <v>1.045396517015889</v>
+        <v>1.002638896090724</v>
       </c>
       <c r="E16">
-        <v>1.036726183857554</v>
+        <v>0.9956548325108697</v>
       </c>
       <c r="F16">
-        <v>1.053560136206456</v>
+        <v>1.007682968356265</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038541759521132</v>
+        <v>1.045045439392899</v>
       </c>
       <c r="J16">
-        <v>1.044247118187384</v>
+        <v>1.014983850015553</v>
       </c>
       <c r="K16">
-        <v>1.048800872401098</v>
+        <v>1.016924129180596</v>
       </c>
       <c r="L16">
-        <v>1.040161110340616</v>
+        <v>1.01006607610568</v>
       </c>
       <c r="M16">
-        <v>1.056936213302881</v>
+        <v>1.021878601977386</v>
       </c>
       <c r="N16">
-        <v>1.018598159038694</v>
+        <v>1.008513036833515</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038399505916844</v>
+        <v>0.9887811611615894</v>
       </c>
       <c r="D17">
-        <v>1.045807348464548</v>
+        <v>1.004767020759081</v>
       </c>
       <c r="E17">
-        <v>1.037114765819526</v>
+        <v>0.9976585215383064</v>
       </c>
       <c r="F17">
-        <v>1.054006921446063</v>
+        <v>1.009988988452773</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038644286015723</v>
+        <v>1.045844108779708</v>
       </c>
       <c r="J17">
-        <v>1.044565036285078</v>
+        <v>1.016677395754367</v>
       </c>
       <c r="K17">
-        <v>1.049139362537243</v>
+        <v>1.018691979929558</v>
       </c>
       <c r="L17">
-        <v>1.040476725754611</v>
+        <v>1.011707730286794</v>
       </c>
       <c r="M17">
-        <v>1.057311185450935</v>
+        <v>1.023824112383931</v>
       </c>
       <c r="N17">
-        <v>1.018705039621304</v>
+        <v>1.009087062568496</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038665258739171</v>
+        <v>0.9902174265649502</v>
       </c>
       <c r="D18">
-        <v>1.046046966336627</v>
+        <v>1.005996945393319</v>
       </c>
       <c r="E18">
-        <v>1.037341418910956</v>
+        <v>0.998816720331052</v>
       </c>
       <c r="F18">
-        <v>1.054267512336244</v>
+        <v>1.011321681976486</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038703842530606</v>
+        <v>1.04630362401172</v>
       </c>
       <c r="J18">
-        <v>1.044750360972168</v>
+        <v>1.017655170934603</v>
       </c>
       <c r="K18">
-        <v>1.049336714377638</v>
+        <v>1.019712960461845</v>
       </c>
       <c r="L18">
-        <v>1.040660746765959</v>
+        <v>1.012655910030123</v>
       </c>
       <c r="M18">
-        <v>1.057529820705567</v>
+        <v>1.024947808785706</v>
       </c>
       <c r="N18">
-        <v>1.018767333686226</v>
+        <v>1.009418467029048</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038755864870012</v>
+        <v>0.9907047764258178</v>
       </c>
       <c r="D19">
-        <v>1.046128667636731</v>
+        <v>1.006414424078322</v>
       </c>
       <c r="E19">
-        <v>1.037418701749566</v>
+        <v>0.9992098846503835</v>
       </c>
       <c r="F19">
-        <v>1.054356365201281</v>
+        <v>1.011774036866999</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038724108137057</v>
+        <v>1.046459247542352</v>
       </c>
       <c r="J19">
-        <v>1.044813533007098</v>
+        <v>1.017986893650928</v>
       </c>
       <c r="K19">
-        <v>1.049403992081729</v>
+        <v>1.020059392848898</v>
       </c>
       <c r="L19">
-        <v>1.040723480967062</v>
+        <v>1.012977653722878</v>
       </c>
       <c r="M19">
-        <v>1.057604356197692</v>
+        <v>1.025329113154706</v>
       </c>
       <c r="N19">
-        <v>1.018788566291252</v>
+        <v>1.009530897993657</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038350618534097</v>
+        <v>0.9885158306426236</v>
       </c>
       <c r="D20">
-        <v>1.045763271506522</v>
+        <v>1.004539878154484</v>
       </c>
       <c r="E20">
-        <v>1.037073074678054</v>
+        <v>0.9974446405558184</v>
       </c>
       <c r="F20">
-        <v>1.053958986803761</v>
+        <v>1.009742863023982</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038633311283354</v>
+        <v>1.045759078045621</v>
       </c>
       <c r="J20">
-        <v>1.044530938227754</v>
+        <v>1.016496740117004</v>
       </c>
       <c r="K20">
-        <v>1.049103054416161</v>
+        <v>1.018503366262392</v>
       </c>
       <c r="L20">
-        <v>1.040442870673003</v>
+        <v>1.011532572195002</v>
       </c>
       <c r="M20">
-        <v>1.057270962734497</v>
+        <v>1.023616532333274</v>
       </c>
       <c r="N20">
-        <v>1.018693577268481</v>
+        <v>1.009025830639589</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037032511551776</v>
+        <v>0.9812276788066483</v>
       </c>
       <c r="D21">
-        <v>1.044575176415259</v>
+        <v>0.9983091233799888</v>
       </c>
       <c r="E21">
-        <v>1.035949403575828</v>
+        <v>0.9915795057259983</v>
       </c>
       <c r="F21">
-        <v>1.052666934760911</v>
+        <v>1.002990948016549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038335236492192</v>
+        <v>1.043407123641376</v>
       </c>
       <c r="J21">
-        <v>1.043610881964582</v>
+        <v>1.011531784280219</v>
       </c>
       <c r="K21">
-        <v>1.048123690763783</v>
+        <v>1.013322600902451</v>
       </c>
       <c r="L21">
-        <v>1.039529730010406</v>
+        <v>1.006722182509375</v>
       </c>
       <c r="M21">
-        <v>1.056186129820905</v>
+        <v>1.017915876665649</v>
       </c>
       <c r="N21">
-        <v>1.018384199103104</v>
+        <v>1.0073429091652</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036203286621689</v>
+        <v>0.976505227194145</v>
       </c>
       <c r="D22">
-        <v>1.043828048382431</v>
+        <v>0.9942805327352804</v>
       </c>
       <c r="E22">
-        <v>1.035242899659118</v>
+        <v>0.9877891794482827</v>
       </c>
       <c r="F22">
-        <v>1.051854459585335</v>
+        <v>0.9986249099682268</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038145612047236</v>
+        <v>1.041867586042435</v>
       </c>
       <c r="J22">
-        <v>1.043031394542792</v>
+        <v>1.008312422538231</v>
       </c>
       <c r="K22">
-        <v>1.0475071651607</v>
+        <v>1.0099661512955</v>
       </c>
       <c r="L22">
-        <v>1.038954946911861</v>
+        <v>1.003606479211535</v>
       </c>
       <c r="M22">
-        <v>1.055503327574019</v>
+        <v>1.014223656967698</v>
       </c>
       <c r="N22">
-        <v>1.01818925049279</v>
+        <v>1.006251634300836</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036642920455376</v>
+        <v>0.9790225456636427</v>
       </c>
       <c r="D23">
-        <v>1.044224127322182</v>
+        <v>0.9964271331635086</v>
       </c>
       <c r="E23">
-        <v>1.035617431716226</v>
+        <v>0.9898086417978209</v>
       </c>
       <c r="F23">
-        <v>1.052285178950798</v>
+        <v>1.000951365778174</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038246345403508</v>
+        <v>1.042689673876715</v>
       </c>
       <c r="J23">
-        <v>1.04333868798764</v>
+        <v>1.010028698439953</v>
       </c>
       <c r="K23">
-        <v>1.047834069480236</v>
+        <v>1.01175524186757</v>
       </c>
       <c r="L23">
-        <v>1.039259712697889</v>
+        <v>1.00526716816878</v>
       </c>
       <c r="M23">
-        <v>1.05586536300873</v>
+        <v>1.016191624339032</v>
       </c>
       <c r="N23">
-        <v>1.018292637309022</v>
+        <v>1.006833404948697</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038372708797259</v>
+        <v>0.988635766162166</v>
       </c>
       <c r="D24">
-        <v>1.04578318802689</v>
+        <v>1.004642549180358</v>
       </c>
       <c r="E24">
-        <v>1.037091913110595</v>
+        <v>0.9975413165893645</v>
       </c>
       <c r="F24">
-        <v>1.053980646440051</v>
+        <v>1.009854114635727</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038638271050776</v>
+        <v>1.045797519312524</v>
       </c>
       <c r="J24">
-        <v>1.044546346016492</v>
+        <v>1.016578401577961</v>
       </c>
       <c r="K24">
-        <v>1.049119460751584</v>
+        <v>1.018588624031365</v>
       </c>
       <c r="L24">
-        <v>1.040458168549643</v>
+        <v>1.011611747479486</v>
       </c>
       <c r="M24">
-        <v>1.05728913789444</v>
+        <v>1.023710362999406</v>
       </c>
       <c r="N24">
-        <v>1.018698756759214</v>
+        <v>1.009053509240888</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040378009922732</v>
+        <v>0.9992348292048513</v>
       </c>
       <c r="D25">
-        <v>1.047591878287182</v>
+        <v>1.013733347805983</v>
       </c>
       <c r="E25">
-        <v>1.038802961823281</v>
+        <v>1.00610520539637</v>
       </c>
       <c r="F25">
-        <v>1.055947699680824</v>
+        <v>1.019703838741002</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039083450986031</v>
+        <v>1.049156974020094</v>
       </c>
       <c r="J25">
-        <v>1.045943392809252</v>
+        <v>1.023787971867359</v>
       </c>
       <c r="K25">
-        <v>1.050607804414758</v>
+        <v>1.026122147388366</v>
       </c>
       <c r="L25">
-        <v>1.041846083461481</v>
+        <v>1.018609479480765</v>
       </c>
       <c r="M25">
-        <v>1.058938228161684</v>
+        <v>1.032003788745377</v>
       </c>
       <c r="N25">
-        <v>1.019168170497726</v>
+        <v>1.011496812514445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,989 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>1.007291596738163</v>
+        <v>0.9897931397024867</v>
       </c>
       <c r="D2">
-        <v>1.02066683046916</v>
+        <v>1.004235922761452</v>
       </c>
       <c r="E2">
-        <v>1.012642153730474</v>
+        <v>1.006916703262982</v>
       </c>
       <c r="F2">
-        <v>1.027215192627804</v>
+        <v>1.017295168454871</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.051654317955389</v>
-      </c>
       <c r="J2">
-        <v>1.029256383347776</v>
+        <v>1.012283481821724</v>
       </c>
       <c r="K2">
-        <v>1.03184556042399</v>
+        <v>1.015636558218926</v>
       </c>
       <c r="L2">
-        <v>1.023928128691646</v>
+        <v>1.018280511180411</v>
       </c>
       <c r="M2">
-        <v>1.038307962744843</v>
+        <v>1.028518699844039</v>
       </c>
       <c r="N2">
-        <v>1.013349355695932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007490103933902</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.031142966693279</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.022126185028892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>1.012933824700774</v>
+        <v>0.9939259049997508</v>
       </c>
       <c r="D3">
-        <v>1.02553448710475</v>
+        <v>1.0072802824051</v>
       </c>
       <c r="E3">
-        <v>1.017234300847917</v>
+        <v>1.010197423034781</v>
       </c>
       <c r="F3">
-        <v>1.032488153858963</v>
+        <v>1.020477247439425</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.053369411003045</v>
-      </c>
       <c r="J3">
-        <v>1.033078004695751</v>
+        <v>1.014583536816964</v>
       </c>
       <c r="K3">
-        <v>1.035850750217079</v>
+        <v>1.017820850501447</v>
       </c>
       <c r="L3">
-        <v>1.027651314134351</v>
+        <v>1.020701467658983</v>
       </c>
       <c r="M3">
-        <v>1.042721556165725</v>
+        <v>1.03085465445772</v>
       </c>
       <c r="N3">
-        <v>1.014643472313314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008331930382105</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032991740115859</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.023668018351504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>1.016495295594346</v>
+        <v>0.9965534217656872</v>
       </c>
       <c r="D4">
-        <v>1.028612223859236</v>
+        <v>1.009223089944301</v>
       </c>
       <c r="E4">
-        <v>1.020139107657051</v>
+        <v>1.012289445124352</v>
       </c>
       <c r="F4">
-        <v>1.035822026760252</v>
+        <v>1.022508648253036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.054435954576246</v>
-      </c>
       <c r="J4">
-        <v>1.035486259203338</v>
+        <v>1.016045704165614</v>
       </c>
       <c r="K4">
-        <v>1.038377166066767</v>
+        <v>1.019211460423031</v>
       </c>
       <c r="L4">
-        <v>1.030000398812975</v>
+        <v>1.022241776024439</v>
       </c>
       <c r="M4">
-        <v>1.045506511882603</v>
+        <v>1.032342796610107</v>
       </c>
       <c r="N4">
-        <v>1.015458684728678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008865960512118</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034169516303072</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.024652258941834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>1.017972048101647</v>
+        <v>0.9976524262136743</v>
       </c>
       <c r="D5">
-        <v>1.029889587549436</v>
+        <v>1.010040518299738</v>
       </c>
       <c r="E5">
-        <v>1.021344995930091</v>
+        <v>1.013166199713901</v>
       </c>
       <c r="F5">
-        <v>1.037205671064984</v>
+        <v>1.023359753781228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.054874281491682</v>
-      </c>
       <c r="J5">
-        <v>1.036483821896502</v>
+        <v>1.016659386847713</v>
       </c>
       <c r="K5">
-        <v>1.039424271318268</v>
+        <v>1.019797655315998</v>
       </c>
       <c r="L5">
-        <v>1.03097413647588</v>
+        <v>1.022887593417683</v>
       </c>
       <c r="M5">
-        <v>1.046660994863728</v>
+        <v>1.032966447251699</v>
       </c>
       <c r="N5">
-        <v>1.015796289806589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009090228761735</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034663098183912</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.025074084161836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>1.018218825462891</v>
+        <v>0.9978426624009357</v>
       </c>
       <c r="D6">
-        <v>1.030103113843599</v>
+        <v>1.010185875702005</v>
       </c>
       <c r="E6">
-        <v>1.021546591454876</v>
+        <v>1.013318387382347</v>
       </c>
       <c r="F6">
-        <v>1.037436962168681</v>
+        <v>1.023506564270185</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.054947297734955</v>
-      </c>
       <c r="J6">
-        <v>1.036650461848518</v>
+        <v>1.016768249791865</v>
       </c>
       <c r="K6">
-        <v>1.039599222363141</v>
+        <v>1.019904148050277</v>
       </c>
       <c r="L6">
-        <v>1.031136836746796</v>
+        <v>1.023001005234007</v>
       </c>
       <c r="M6">
-        <v>1.046853899762956</v>
+        <v>1.033075075573515</v>
       </c>
       <c r="N6">
-        <v>1.015852681011157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009130499605607</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034749070915739</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.025158309463162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>1.016515107370887</v>
+        <v>0.9965852943792169</v>
       </c>
       <c r="D7">
-        <v>1.028629356046046</v>
+        <v>1.009256878325913</v>
       </c>
       <c r="E7">
-        <v>1.020155280044952</v>
+        <v>1.012315791469245</v>
       </c>
       <c r="F7">
-        <v>1.035840584485672</v>
+        <v>1.02253162985852</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.054441850616625</v>
-      </c>
       <c r="J7">
-        <v>1.03549964634294</v>
+        <v>1.01607063101836</v>
       </c>
       <c r="K7">
-        <v>1.038391215696538</v>
+        <v>1.019241885824375</v>
       </c>
       <c r="L7">
-        <v>1.03001346351805</v>
+        <v>1.022264861554632</v>
       </c>
       <c r="M7">
-        <v>1.045522001381552</v>
+        <v>1.032362602918701</v>
       </c>
       <c r="N7">
-        <v>1.015463215652437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008876454752406</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034185191807451</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.02469430131206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>1.009217503143755</v>
+        <v>0.9912216667858008</v>
       </c>
       <c r="D8">
-        <v>1.022327220518972</v>
+        <v>1.005299332540804</v>
       </c>
       <c r="E8">
-        <v>1.014208293546777</v>
+        <v>1.008050681381082</v>
       </c>
       <c r="F8">
-        <v>1.029013866679241</v>
+        <v>1.018391263529353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.052243082690273</v>
-      </c>
       <c r="J8">
-        <v>1.030561662580703</v>
+        <v>1.013087610884414</v>
       </c>
       <c r="K8">
-        <v>1.033213015614203</v>
+        <v>1.016407996314401</v>
       </c>
       <c r="L8">
-        <v>1.025199183370799</v>
+        <v>1.01912269427609</v>
       </c>
       <c r="M8">
-        <v>1.039814661256494</v>
+        <v>1.029327745400503</v>
       </c>
       <c r="N8">
-        <v>1.013791420851017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007786488239823</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.031783280168261</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.022695095979339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.9956287267566231</v>
+        <v>0.9813670228099297</v>
       </c>
       <c r="D9">
-        <v>1.010636521342438</v>
+        <v>0.9980713384088761</v>
       </c>
       <c r="E9">
-        <v>1.00318699792461</v>
+        <v>1.000264145037294</v>
       </c>
       <c r="F9">
-        <v>1.016348655171434</v>
+        <v>1.010854935984554</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.048022746888684</v>
-      </c>
       <c r="J9">
-        <v>1.021336795910485</v>
+        <v>1.007595363496895</v>
       </c>
       <c r="K9">
-        <v>1.023559353769859</v>
+        <v>1.011195784496853</v>
       </c>
       <c r="L9">
-        <v>1.016228579069542</v>
+        <v>1.013352938125722</v>
       </c>
       <c r="M9">
-        <v>1.029181940831709</v>
+        <v>1.023774320595106</v>
       </c>
       <c r="N9">
-        <v>1.010666204314959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005768807549276</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.027388048862709</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.019006287291248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.986011244696846</v>
+        <v>0.9746170294958961</v>
       </c>
       <c r="D10">
-        <v>1.002396830847189</v>
+        <v>0.9931772809348077</v>
       </c>
       <c r="E10">
-        <v>0.9954269476049283</v>
+        <v>0.9950134418729609</v>
       </c>
       <c r="F10">
-        <v>1.00742066204026</v>
+        <v>1.005835833126885</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.044954312999603</v>
-      </c>
       <c r="J10">
-        <v>1.014791081133556</v>
+        <v>1.003875225303717</v>
       </c>
       <c r="K10">
-        <v>1.016722944203367</v>
+        <v>1.007670824122248</v>
       </c>
       <c r="L10">
-        <v>1.009879263750993</v>
+        <v>1.009473317653553</v>
       </c>
       <c r="M10">
-        <v>1.021657214379438</v>
+        <v>1.020100513214719</v>
       </c>
       <c r="N10">
-        <v>1.008447696644864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004403813968177</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.024532740087625</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.016531025085007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.9816973762180152</v>
+        <v>0.9724029139731623</v>
       </c>
       <c r="D11">
-        <v>0.9987101836820645</v>
+        <v>0.9916840466547826</v>
       </c>
       <c r="E11">
-        <v>0.9919569257224184</v>
+        <v>0.9936653656629633</v>
       </c>
       <c r="F11">
-        <v>1.003425580931921</v>
+        <v>1.004956670531876</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.043559606746535</v>
-      </c>
       <c r="J11">
-        <v>1.011851898208779</v>
+        <v>1.002970601549752</v>
       </c>
       <c r="K11">
-        <v>1.013656465110253</v>
+        <v>1.006764512337457</v>
       </c>
       <c r="L11">
-        <v>1.007032133526497</v>
+        <v>1.008707740889096</v>
       </c>
       <c r="M11">
-        <v>1.018283183670257</v>
+        <v>1.019785712791133</v>
       </c>
       <c r="N11">
-        <v>1.007451418351229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.004127077137676</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.024726851534768</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.015923893946177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.9800709557082242</v>
+        <v>0.971865064999005</v>
       </c>
       <c r="D12">
-        <v>0.9973217216384613</v>
+        <v>0.9913673714157434</v>
       </c>
       <c r="E12">
-        <v>0.9906503676326066</v>
+        <v>0.9935226564173402</v>
       </c>
       <c r="F12">
-        <v>1.001920874942736</v>
+        <v>1.005116083009167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.043031098736308</v>
-      </c>
       <c r="J12">
-        <v>1.010743369801191</v>
+        <v>1.002909791020391</v>
       </c>
       <c r="K12">
-        <v>1.012500413747671</v>
+        <v>1.006661849065636</v>
       </c>
       <c r="L12">
-        <v>1.005958911056654</v>
+        <v>1.008775013213052</v>
       </c>
       <c r="M12">
-        <v>1.017011366317802</v>
+        <v>1.020145918964057</v>
       </c>
       <c r="N12">
-        <v>1.007075658995897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.004151519610341</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025342774640245</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.015851304077657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.9804209445644519</v>
+        <v>0.9726021191082013</v>
       </c>
       <c r="D13">
-        <v>0.9976204356977746</v>
+        <v>0.9919599472496335</v>
       </c>
       <c r="E13">
-        <v>0.9909314462089943</v>
+        <v>0.9943165011653148</v>
       </c>
       <c r="F13">
-        <v>1.002244601634779</v>
+        <v>1.006111661708484</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.043144947491465</v>
-      </c>
       <c r="J13">
-        <v>1.010981930108838</v>
+        <v>1.003515983848795</v>
       </c>
       <c r="K13">
-        <v>1.012749179162117</v>
+        <v>1.007198262424283</v>
       </c>
       <c r="L13">
-        <v>1.006189846700644</v>
+        <v>1.0095090011799</v>
       </c>
       <c r="M13">
-        <v>1.017285034754519</v>
+        <v>1.021079057374999</v>
       </c>
       <c r="N13">
-        <v>1.007156524292377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004418982053362</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026360579964058</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.016228027224462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.9815634363937571</v>
+        <v>0.9736951843884302</v>
       </c>
       <c r="D14">
-        <v>0.9985958096455134</v>
+        <v>0.9927884030875823</v>
       </c>
       <c r="E14">
-        <v>0.9918492919297869</v>
+        <v>0.9952941210843388</v>
       </c>
       <c r="F14">
-        <v>1.003301633072833</v>
+        <v>1.007184267122124</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.043516136554917</v>
-      </c>
       <c r="J14">
-        <v>1.011760615629124</v>
+        <v>1.004242034951982</v>
       </c>
       <c r="K14">
-        <v>1.013561259309349</v>
+        <v>1.007864762481788</v>
       </c>
       <c r="L14">
-        <v>1.006943746262524</v>
+        <v>1.010322418589433</v>
       </c>
       <c r="M14">
-        <v>1.018178440386796</v>
+        <v>1.021988751486608</v>
       </c>
       <c r="N14">
-        <v>1.007420476273318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004716398109445</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027254719928329</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.016700749167206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.9822641247987567</v>
+        <v>0.9742471199853598</v>
       </c>
       <c r="D15">
-        <v>0.9991942031820653</v>
+        <v>0.9931983316182197</v>
       </c>
       <c r="E15">
-        <v>0.992412434254479</v>
+        <v>0.995748618105017</v>
       </c>
       <c r="F15">
-        <v>1.003950112492812</v>
+        <v>1.007647758833059</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.043743436770529</v>
-      </c>
       <c r="J15">
-        <v>1.012238132773855</v>
+        <v>1.004574084913043</v>
       </c>
       <c r="K15">
-        <v>1.014059319449656</v>
+        <v>1.008177019462538</v>
       </c>
       <c r="L15">
-        <v>1.007406141409227</v>
+        <v>1.010678780828331</v>
       </c>
       <c r="M15">
-        <v>1.018726402289532</v>
+        <v>1.022355742202484</v>
       </c>
       <c r="N15">
-        <v>1.007582340118122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004845514647676</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027582653792553</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.01692755572262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.9862942597819834</v>
+        <v>0.9769564455042197</v>
       </c>
       <c r="D16">
-        <v>1.002638896090724</v>
+        <v>0.9951490044160922</v>
       </c>
       <c r="E16">
-        <v>0.9956548325108697</v>
+        <v>0.9978163190153831</v>
       </c>
       <c r="F16">
-        <v>1.007682968356265</v>
+        <v>1.009609692578959</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.045045439392899</v>
-      </c>
       <c r="J16">
-        <v>1.014983850015553</v>
+        <v>1.006035307690381</v>
       </c>
       <c r="K16">
-        <v>1.016924129180596</v>
+        <v>1.009569463854499</v>
       </c>
       <c r="L16">
-        <v>1.01006607610568</v>
+        <v>1.012188318699816</v>
       </c>
       <c r="M16">
-        <v>1.021878601977386</v>
+        <v>1.023771407419273</v>
       </c>
       <c r="N16">
-        <v>1.008513036833515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005372769894506</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028662522754576</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.017915352273009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.9887811611615894</v>
+        <v>0.9784660472931911</v>
       </c>
       <c r="D17">
-        <v>1.004767020759081</v>
+        <v>0.9962162895905142</v>
       </c>
       <c r="E17">
-        <v>0.9976585215383064</v>
+        <v>0.9988937457322877</v>
       </c>
       <c r="F17">
-        <v>1.009988988452773</v>
+        <v>1.010550157036423</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.045844108779708</v>
-      </c>
       <c r="J17">
-        <v>1.016677395754367</v>
+        <v>1.006777656939448</v>
       </c>
       <c r="K17">
-        <v>1.018691979929558</v>
+        <v>1.010290987806486</v>
       </c>
       <c r="L17">
-        <v>1.011707730286794</v>
+        <v>1.012921199435612</v>
       </c>
       <c r="M17">
-        <v>1.023824112383931</v>
+        <v>1.024375698360932</v>
       </c>
       <c r="N17">
-        <v>1.009087062568496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005621850059918</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029009929070462</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.018428169439292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.9902174265649502</v>
+        <v>0.9790620016293159</v>
       </c>
       <c r="D18">
-        <v>1.005996945393319</v>
+        <v>0.9965935775862126</v>
       </c>
       <c r="E18">
-        <v>0.998816720331052</v>
+        <v>0.9991786606500931</v>
       </c>
       <c r="F18">
-        <v>1.011321681976486</v>
+        <v>1.010633398941596</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.04630362401172</v>
-      </c>
       <c r="J18">
-        <v>1.017655170934603</v>
+        <v>1.006940044568828</v>
       </c>
       <c r="K18">
-        <v>1.019712960461845</v>
+        <v>1.01047137052318</v>
       </c>
       <c r="L18">
-        <v>1.012655910030123</v>
+        <v>1.013011586557652</v>
       </c>
       <c r="M18">
-        <v>1.024947808785706</v>
+        <v>1.024271076107527</v>
       </c>
       <c r="N18">
-        <v>1.009418467029048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005642995418584</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028686991668691</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.018543791236598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.9907047764258178</v>
+        <v>0.9788664982527947</v>
       </c>
       <c r="D19">
-        <v>1.006414424078322</v>
+        <v>0.9963896692679055</v>
       </c>
       <c r="E19">
-        <v>0.9992098846503835</v>
+        <v>0.9987715357538397</v>
       </c>
       <c r="F19">
-        <v>1.011774036866999</v>
+        <v>1.009952396174416</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.046459247542352</v>
-      </c>
       <c r="J19">
-        <v>1.017986893650928</v>
+        <v>1.006612930436271</v>
       </c>
       <c r="K19">
-        <v>1.020059392848898</v>
+        <v>1.010206134294591</v>
       </c>
       <c r="L19">
-        <v>1.012977653722878</v>
+        <v>1.012546850347311</v>
       </c>
       <c r="M19">
-        <v>1.025329113154706</v>
+        <v>1.023537887439065</v>
       </c>
       <c r="N19">
-        <v>1.009530897993657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005478468198659</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027777663789012</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.018362804409234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.9885158306426236</v>
+        <v>0.9764169757079992</v>
       </c>
       <c r="D20">
-        <v>1.004539878154484</v>
+        <v>0.9945056614521135</v>
       </c>
       <c r="E20">
-        <v>0.9974446405558184</v>
+        <v>0.9964163820957498</v>
       </c>
       <c r="F20">
-        <v>1.009742863023982</v>
+        <v>1.007171973828149</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.045759078045621</v>
-      </c>
       <c r="J20">
-        <v>1.016496740117004</v>
+        <v>1.004888259716216</v>
       </c>
       <c r="K20">
-        <v>1.018503366262392</v>
+        <v>1.008645815122651</v>
       </c>
       <c r="L20">
-        <v>1.011532572195002</v>
+        <v>1.010522539158625</v>
       </c>
       <c r="M20">
-        <v>1.023616532333274</v>
+        <v>1.021089874223934</v>
       </c>
       <c r="N20">
-        <v>1.009025830639589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004780456456558</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.025304999496534</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.017263573467114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.9812276788066483</v>
+        <v>0.971198987581563</v>
       </c>
       <c r="D21">
-        <v>0.9983091233799888</v>
+        <v>0.9907148896315415</v>
       </c>
       <c r="E21">
-        <v>0.9915795057259983</v>
+        <v>0.9923012677134997</v>
       </c>
       <c r="F21">
-        <v>1.002990948016549</v>
+        <v>1.003163105834604</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.043407123641376</v>
-      </c>
       <c r="J21">
-        <v>1.011531784280219</v>
+        <v>1.00195224912673</v>
       </c>
       <c r="K21">
-        <v>1.013322600902451</v>
+        <v>1.005874332644171</v>
       </c>
       <c r="L21">
-        <v>1.006722182509375</v>
+        <v>1.007429977745222</v>
       </c>
       <c r="M21">
-        <v>1.017915876665649</v>
+        <v>1.018084798983178</v>
       </c>
       <c r="N21">
-        <v>1.0073429091652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.003691548066511</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.022885075224466</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.015307260061522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.976505227194145</v>
+        <v>0.9678768396874227</v>
       </c>
       <c r="D22">
-        <v>0.9942805327352804</v>
+        <v>0.9883065605963779</v>
       </c>
       <c r="E22">
-        <v>0.9877891794482827</v>
+        <v>0.9897113541342585</v>
       </c>
       <c r="F22">
-        <v>0.9986249099682268</v>
+        <v>1.000671520339828</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.041867586042435</v>
-      </c>
       <c r="J22">
-        <v>1.008312422538231</v>
+        <v>1.00009468887964</v>
       </c>
       <c r="K22">
-        <v>1.0099661512955</v>
+        <v>1.004113281300852</v>
       </c>
       <c r="L22">
-        <v>1.003606479211535</v>
+        <v>1.005489424100467</v>
       </c>
       <c r="M22">
-        <v>1.014223656967698</v>
+        <v>1.016229686008646</v>
       </c>
       <c r="N22">
-        <v>1.006251634300836</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003002854106049</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.021416839022373</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.014048190820175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.9790225456636427</v>
+        <v>0.9696265777789395</v>
       </c>
       <c r="D23">
-        <v>0.9964271331635086</v>
+        <v>0.989564662395765</v>
       </c>
       <c r="E23">
-        <v>0.9898086417978209</v>
+        <v>0.9910732043195735</v>
       </c>
       <c r="F23">
-        <v>1.000951365778174</v>
+        <v>1.001983989564453</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.042689673876715</v>
-      </c>
       <c r="J23">
-        <v>1.010028698439953</v>
+        <v>1.001065827354164</v>
       </c>
       <c r="K23">
-        <v>1.01175524186757</v>
+        <v>1.005028040220557</v>
       </c>
       <c r="L23">
-        <v>1.00526716816878</v>
+        <v>1.006506635552093</v>
       </c>
       <c r="M23">
-        <v>1.016191624339032</v>
+        <v>1.01720434258845</v>
       </c>
       <c r="N23">
-        <v>1.006833404948697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003361367818213</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.022188235069311</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.014685097625449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.988635766162166</v>
+        <v>0.9764027481288704</v>
       </c>
       <c r="D24">
-        <v>1.004642549180358</v>
+        <v>0.9944719516377234</v>
       </c>
       <c r="E24">
-        <v>0.9975413165893645</v>
+        <v>0.996368091055202</v>
       </c>
       <c r="F24">
-        <v>1.009854114635727</v>
+        <v>1.007088467511951</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.045797519312524</v>
-      </c>
       <c r="J24">
-        <v>1.016578401577961</v>
+        <v>1.004840421229273</v>
       </c>
       <c r="K24">
-        <v>1.018588624031365</v>
+        <v>1.008596846494541</v>
       </c>
       <c r="L24">
-        <v>1.011611747479486</v>
+        <v>1.010459288702395</v>
       </c>
       <c r="M24">
-        <v>1.023710362999406</v>
+        <v>1.020992234820036</v>
       </c>
       <c r="N24">
-        <v>1.009053509240888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004755757121615</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025186169935018</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.017200841763533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.9992348292048513</v>
+        <v>0.9839907414612541</v>
       </c>
       <c r="D25">
-        <v>1.013733347805983</v>
+        <v>1.000004504698049</v>
       </c>
       <c r="E25">
-        <v>1.00610520539637</v>
+        <v>1.002332756088385</v>
       </c>
       <c r="F25">
-        <v>1.019703838741002</v>
+        <v>1.012850596724044</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.049156974020094</v>
-      </c>
       <c r="J25">
-        <v>1.023787971867359</v>
+        <v>1.009069159344309</v>
       </c>
       <c r="K25">
-        <v>1.026122147388366</v>
+        <v>1.012602750737261</v>
       </c>
       <c r="L25">
-        <v>1.018609479480765</v>
+        <v>1.014894966637111</v>
       </c>
       <c r="M25">
-        <v>1.032003788745377</v>
+        <v>1.025252646065787</v>
       </c>
       <c r="N25">
-        <v>1.011496812514445</v>
+        <v>1.006313672299345</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.028558065161877</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.020030420529499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,1133 +424,1355 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9897931397024867</v>
+        <v>0.991576161261182</v>
       </c>
       <c r="D2">
-        <v>1.004235922761452</v>
+        <v>1.006269807448537</v>
       </c>
       <c r="E2">
-        <v>1.006916703262982</v>
+        <v>1.008389386315204</v>
       </c>
       <c r="F2">
-        <v>1.017295168454871</v>
+        <v>1.018474103431139</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="J2">
-        <v>1.012283481821724</v>
+        <v>1.01401178067417</v>
       </c>
       <c r="K2">
-        <v>1.015636558218926</v>
+        <v>1.017642479547265</v>
       </c>
       <c r="L2">
-        <v>1.018280511180411</v>
+        <v>1.019733067985628</v>
       </c>
       <c r="M2">
-        <v>1.028518699844039</v>
+        <v>1.029681927218409</v>
       </c>
       <c r="N2">
-        <v>1.007490103933902</v>
+        <v>1.010566470341559</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.031142966693279</v>
+        <v>1.032063594718157</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.022126185028892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.023553571211399</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01656044057479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9939259049997508</v>
+        <v>0.9954426567435317</v>
       </c>
       <c r="D3">
-        <v>1.0072802824051</v>
+        <v>1.008969889075533</v>
       </c>
       <c r="E3">
-        <v>1.010197423034781</v>
+        <v>1.011451058152474</v>
       </c>
       <c r="F3">
-        <v>1.020477247439425</v>
+        <v>1.02148036446543</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="J3">
-        <v>1.014583536816964</v>
+        <v>1.016058335273553</v>
       </c>
       <c r="K3">
-        <v>1.017820850501447</v>
+        <v>1.01948927070805</v>
       </c>
       <c r="L3">
-        <v>1.020701467658983</v>
+        <v>1.021939487522836</v>
       </c>
       <c r="M3">
-        <v>1.03085465445772</v>
+        <v>1.03184558363242</v>
       </c>
       <c r="N3">
-        <v>1.008331930382105</v>
+        <v>1.011159139218123</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032991740115859</v>
+        <v>1.033776001962068</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.023668018351504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.024856464912184</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.016989226047671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9965534217656872</v>
+        <v>0.9979034133665321</v>
       </c>
       <c r="D4">
-        <v>1.009223089944301</v>
+        <v>1.010695170562837</v>
       </c>
       <c r="E4">
-        <v>1.012289445124352</v>
+        <v>1.013405779310733</v>
       </c>
       <c r="F4">
-        <v>1.022508648253036</v>
+        <v>1.023401629185402</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="J4">
-        <v>1.016045704165614</v>
+        <v>1.017360902520751</v>
       </c>
       <c r="K4">
-        <v>1.019211460423031</v>
+        <v>1.020666205557021</v>
       </c>
       <c r="L4">
-        <v>1.022241776024439</v>
+        <v>1.0233450566642</v>
       </c>
       <c r="M4">
-        <v>1.032342796610107</v>
+        <v>1.033225588781101</v>
       </c>
       <c r="N4">
-        <v>1.008865960512118</v>
+        <v>1.011535688254817</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034169516303072</v>
+        <v>1.034868192978346</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.024652258941834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.025689686539161</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.017259785241444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9976524262136743</v>
+        <v>0.9989330126446078</v>
       </c>
       <c r="D5">
-        <v>1.010040518299738</v>
+        <v>1.011421731177372</v>
       </c>
       <c r="E5">
-        <v>1.013166199713901</v>
+        <v>1.014225357634844</v>
       </c>
       <c r="F5">
-        <v>1.023359753781228</v>
+        <v>1.02420688807774</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="J5">
-        <v>1.016659386847713</v>
+        <v>1.017907963194839</v>
       </c>
       <c r="K5">
-        <v>1.019797655315998</v>
+        <v>1.021163039900466</v>
       </c>
       <c r="L5">
-        <v>1.022887593417683</v>
+        <v>1.02393470110843</v>
       </c>
       <c r="M5">
-        <v>1.032966447251699</v>
+        <v>1.033804175782336</v>
       </c>
       <c r="N5">
-        <v>1.009090228761735</v>
+        <v>1.011693981655342</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034663098183912</v>
+        <v>1.035326109263161</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.025074084161836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.026049027177685</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017374036432846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9978426624009357</v>
+        <v>0.9991109806167305</v>
       </c>
       <c r="D6">
-        <v>1.010185875702005</v>
+        <v>1.011551138366354</v>
       </c>
       <c r="E6">
-        <v>1.013318387382347</v>
+        <v>1.014367424177573</v>
       </c>
       <c r="F6">
-        <v>1.023506564270185</v>
+        <v>1.024345587053047</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="J6">
-        <v>1.016768249791865</v>
+        <v>1.018005029204381</v>
       </c>
       <c r="K6">
-        <v>1.019904148050277</v>
+        <v>1.021253837701726</v>
       </c>
       <c r="L6">
-        <v>1.023001005234007</v>
+        <v>1.024038162476685</v>
       </c>
       <c r="M6">
-        <v>1.033075075573515</v>
+        <v>1.033904825746216</v>
       </c>
       <c r="N6">
-        <v>1.009130499605607</v>
+        <v>1.011722441267928</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034749070915739</v>
+        <v>1.035405767533924</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.025158309463162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.026123017292057</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.017395719828355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9965852943792169</v>
+        <v>0.9979408148663534</v>
       </c>
       <c r="D7">
-        <v>1.009256878325913</v>
+        <v>1.010732444587526</v>
       </c>
       <c r="E7">
-        <v>1.012315791469245</v>
+        <v>1.01343692742617</v>
       </c>
       <c r="F7">
-        <v>1.02253162985852</v>
+        <v>1.023428396174936</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="J7">
-        <v>1.01607063101836</v>
+        <v>1.017391231849936</v>
       </c>
       <c r="K7">
-        <v>1.019241885824375</v>
+        <v>1.020700082892448</v>
       </c>
       <c r="L7">
-        <v>1.022264861554632</v>
+        <v>1.023372893128515</v>
       </c>
       <c r="M7">
-        <v>1.032362602918701</v>
+        <v>1.033249141314899</v>
       </c>
       <c r="N7">
-        <v>1.008876454752406</v>
+        <v>1.011571714608341</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034185191807451</v>
+        <v>1.034886833376599</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.02469430131206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.025736155218107</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.017270644233077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9912216667858008</v>
+        <v>0.9929367852027805</v>
       </c>
       <c r="D8">
-        <v>1.005299332540804</v>
+        <v>1.007234032594168</v>
       </c>
       <c r="E8">
-        <v>1.008050681381082</v>
+        <v>1.009468477784342</v>
       </c>
       <c r="F8">
-        <v>1.018391263529353</v>
+        <v>1.019525879777622</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="J8">
-        <v>1.013087610884414</v>
+        <v>1.014751879290109</v>
       </c>
       <c r="K8">
-        <v>1.016407996314401</v>
+        <v>1.018316897884642</v>
       </c>
       <c r="L8">
-        <v>1.01912269427609</v>
+        <v>1.020521701990482</v>
       </c>
       <c r="M8">
-        <v>1.029327745400503</v>
+        <v>1.030447699976294</v>
       </c>
       <c r="N8">
-        <v>1.007786488239823</v>
+        <v>1.010862115272933</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.031783280168261</v>
+        <v>1.032669659453896</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.022695095979339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.024056120830374</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.016722986258191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9813670228099297</v>
+        <v>0.9837377730318315</v>
       </c>
       <c r="D9">
-        <v>0.9980713384088761</v>
+        <v>1.000839617487889</v>
       </c>
       <c r="E9">
-        <v>1.000264145037294</v>
+        <v>1.002220639243588</v>
       </c>
       <c r="F9">
-        <v>1.010854935984554</v>
+        <v>1.012422337729292</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="J9">
-        <v>1.007595363496895</v>
+        <v>1.009878157574971</v>
       </c>
       <c r="K9">
-        <v>1.011195784496853</v>
+        <v>1.013919087156221</v>
       </c>
       <c r="L9">
-        <v>1.013352938125722</v>
+        <v>1.015277790576354</v>
       </c>
       <c r="M9">
-        <v>1.023774320595106</v>
+        <v>1.025317035730148</v>
       </c>
       <c r="N9">
-        <v>1.005768807549276</v>
+        <v>1.009455981514261</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.027388048862709</v>
+        <v>1.028609026125166</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.019006287291248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.020942933667679</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.0156849033795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9746170294958961</v>
+        <v>0.9774861549171654</v>
       </c>
       <c r="D10">
-        <v>0.9931772809348077</v>
+        <v>0.9965514905287012</v>
       </c>
       <c r="E10">
-        <v>0.9950134418729609</v>
+        <v>0.9973792474404185</v>
       </c>
       <c r="F10">
-        <v>1.005835833126885</v>
+        <v>1.007732039069449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="J10">
-        <v>1.003875225303717</v>
+        <v>1.006622400058863</v>
       </c>
       <c r="K10">
-        <v>1.007670824122248</v>
+        <v>1.010983289284542</v>
       </c>
       <c r="L10">
-        <v>1.009473317653553</v>
+        <v>1.01179598215735</v>
       </c>
       <c r="M10">
-        <v>1.020100513214719</v>
+        <v>1.021963078536947</v>
       </c>
       <c r="N10">
-        <v>1.004403813968177</v>
+        <v>1.008631525025681</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.024532740087625</v>
+        <v>1.026006772778821</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.016531025085007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.018885950331162</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.014988898290714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9724029139731623</v>
+        <v>0.9754597398853724</v>
       </c>
       <c r="D11">
-        <v>0.9916840466547826</v>
+        <v>0.9952688308125965</v>
       </c>
       <c r="E11">
-        <v>0.9936653656629633</v>
+        <v>0.9961824595537061</v>
       </c>
       <c r="F11">
-        <v>1.004956670531876</v>
+        <v>1.006972837467679</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="J11">
-        <v>1.002970601549752</v>
+        <v>1.00589029826165</v>
       </c>
       <c r="K11">
-        <v>1.006764512337457</v>
+        <v>1.010280525019684</v>
       </c>
       <c r="L11">
-        <v>1.008707740889096</v>
+        <v>1.011176729986487</v>
       </c>
       <c r="M11">
-        <v>1.019785712791133</v>
+        <v>1.021764443503376</v>
       </c>
       <c r="N11">
-        <v>1.004127077137676</v>
+        <v>1.008691937845964</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.024726851534768</v>
+        <v>1.026292005382216</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.015923893946177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.018425914354415</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.014877697726369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.971865064999005</v>
+        <v>0.9749586931212383</v>
       </c>
       <c r="D12">
-        <v>0.9913673714157434</v>
+        <v>0.9949924956847976</v>
       </c>
       <c r="E12">
-        <v>0.9935226564173402</v>
+        <v>0.9960665114508394</v>
       </c>
       <c r="F12">
-        <v>1.005116083009167</v>
+        <v>1.007152978175545</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="J12">
-        <v>1.002909791020391</v>
+        <v>1.00586200132538</v>
       </c>
       <c r="K12">
-        <v>1.006661849065636</v>
+        <v>1.010216264521703</v>
       </c>
       <c r="L12">
-        <v>1.008775013213052</v>
+        <v>1.01126946089635</v>
       </c>
       <c r="M12">
-        <v>1.020145918964057</v>
+        <v>1.022144409612478</v>
       </c>
       <c r="N12">
-        <v>1.004151519610341</v>
+        <v>1.008820446387933</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025342774640245</v>
+        <v>1.026923008735165</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.015851304077657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.01838047914416</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.014903701113248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9726021191082013</v>
+        <v>0.9756040732957916</v>
       </c>
       <c r="D13">
-        <v>0.9919599472496335</v>
+        <v>0.995484287987366</v>
       </c>
       <c r="E13">
-        <v>0.9943165011653148</v>
+        <v>0.9967805997930969</v>
       </c>
       <c r="F13">
-        <v>1.006111661708484</v>
+        <v>1.008084537196483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="J13">
-        <v>1.003515983848795</v>
+        <v>1.006381494692023</v>
       </c>
       <c r="K13">
-        <v>1.007198262424283</v>
+        <v>1.010654189676966</v>
       </c>
       <c r="L13">
-        <v>1.0095090011799</v>
+        <v>1.011925497234221</v>
       </c>
       <c r="M13">
-        <v>1.021079057374999</v>
+        <v>1.023014952771399</v>
       </c>
       <c r="N13">
-        <v>1.004418982053362</v>
+        <v>1.008978958384214</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026360579964058</v>
+        <v>1.027890926101243</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.016228027224462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.018687317081825</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.015042922385403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9736951843884302</v>
+        <v>0.9765757786274796</v>
       </c>
       <c r="D14">
-        <v>0.9927884030875823</v>
+        <v>0.9961791489625016</v>
       </c>
       <c r="E14">
-        <v>0.9952941210843388</v>
+        <v>0.9976552040790994</v>
       </c>
       <c r="F14">
-        <v>1.007184267122124</v>
+        <v>1.009074816686854</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="J14">
-        <v>1.004242034951982</v>
+        <v>1.006993677115774</v>
       </c>
       <c r="K14">
-        <v>1.007864762481788</v>
+        <v>1.011190546441202</v>
       </c>
       <c r="L14">
-        <v>1.010322418589433</v>
+        <v>1.012638502815864</v>
       </c>
       <c r="M14">
-        <v>1.021988751486608</v>
+        <v>1.023844347810262</v>
       </c>
       <c r="N14">
-        <v>1.004716398109445</v>
+        <v>1.009105026786362</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027254719928329</v>
+        <v>1.028721387858459</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.016700749167206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.019068144583257</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01519270926467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9742471199853598</v>
+        <v>0.9770705485991258</v>
       </c>
       <c r="D15">
-        <v>0.9931983316182197</v>
+        <v>0.9965257173502413</v>
       </c>
       <c r="E15">
-        <v>0.995748618105017</v>
+        <v>0.9980618383184839</v>
       </c>
       <c r="F15">
-        <v>1.007647758833059</v>
+        <v>1.009500078169569</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="J15">
-        <v>1.004574084913043</v>
+        <v>1.007272263834449</v>
       </c>
       <c r="K15">
-        <v>1.008177019462538</v>
+        <v>1.011441158487968</v>
       </c>
       <c r="L15">
-        <v>1.010678780828331</v>
+        <v>1.012948266869246</v>
       </c>
       <c r="M15">
-        <v>1.022355742202484</v>
+        <v>1.024174088681876</v>
       </c>
       <c r="N15">
-        <v>1.004845514647676</v>
+        <v>1.009148201916482</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027582653792553</v>
+        <v>1.029019841201179</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.01692755572262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.019251921566315</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.015257313043751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9769564455042197</v>
+        <v>0.9795302628503527</v>
       </c>
       <c r="D16">
-        <v>0.9951490044160922</v>
+        <v>0.9981937144994454</v>
       </c>
       <c r="E16">
-        <v>0.9978163190153831</v>
+        <v>0.9999239321196738</v>
       </c>
       <c r="F16">
-        <v>1.009609692578959</v>
+        <v>1.011297581687869</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="J16">
-        <v>1.006035307690381</v>
+        <v>1.008500773601494</v>
       </c>
       <c r="K16">
-        <v>1.009569463854499</v>
+        <v>1.012558884860254</v>
       </c>
       <c r="L16">
-        <v>1.012188318699816</v>
+        <v>1.014257878347485</v>
       </c>
       <c r="M16">
-        <v>1.023771407419273</v>
+        <v>1.025429719859049</v>
       </c>
       <c r="N16">
-        <v>1.005372769894506</v>
+        <v>1.009287237861616</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028662522754576</v>
+        <v>1.029973260444578</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.017915352273009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.020045758401307</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.015513190065081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9784660472931911</v>
+        <v>0.9809212866971754</v>
       </c>
       <c r="D17">
-        <v>0.9962162895905142</v>
+        <v>0.9991215013434079</v>
       </c>
       <c r="E17">
-        <v>0.9988937457322877</v>
+        <v>1.000905381809575</v>
       </c>
       <c r="F17">
-        <v>1.010550157036423</v>
+        <v>1.012161180444285</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="J17">
-        <v>1.006777656939448</v>
+        <v>1.009132902889603</v>
       </c>
       <c r="K17">
-        <v>1.010290987806486</v>
+        <v>1.013144951376352</v>
       </c>
       <c r="L17">
-        <v>1.012921199435612</v>
+        <v>1.014897555004239</v>
       </c>
       <c r="M17">
-        <v>1.024375698360932</v>
+        <v>1.025959287893176</v>
       </c>
       <c r="N17">
-        <v>1.005621850059918</v>
+        <v>1.009358298294812</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029009929070462</v>
+        <v>1.030261732095554</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.018428169439292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.020463037219532</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.015633564280241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9790620016293159</v>
+        <v>0.9814897438127748</v>
       </c>
       <c r="D18">
-        <v>0.9965935775862126</v>
+        <v>0.9994622001785534</v>
       </c>
       <c r="E18">
-        <v>0.9991786606500931</v>
+        <v>1.001170578712432</v>
       </c>
       <c r="F18">
-        <v>1.010633398941596</v>
+        <v>1.012228656226703</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="J18">
-        <v>1.006940044568828</v>
+        <v>1.009270757856777</v>
       </c>
       <c r="K18">
-        <v>1.01047137052318</v>
+        <v>1.013290223209487</v>
       </c>
       <c r="L18">
-        <v>1.013011586557652</v>
+        <v>1.01496913698853</v>
       </c>
       <c r="M18">
-        <v>1.024271076107527</v>
+        <v>1.025839593646101</v>
       </c>
       <c r="N18">
-        <v>1.005642995418584</v>
+        <v>1.00932945882482</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028686991668691</v>
+        <v>1.02992714395279</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.018543791236598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.020552712269251</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.015636399638947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9788664982527947</v>
+        <v>0.9813360769551186</v>
       </c>
       <c r="D19">
-        <v>0.9963896692679055</v>
+        <v>0.9993032595373987</v>
       </c>
       <c r="E19">
-        <v>0.9987715357538397</v>
+        <v>1.000801527539004</v>
       </c>
       <c r="F19">
-        <v>1.009952396174416</v>
+        <v>1.011578442594466</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="J19">
-        <v>1.006612930436271</v>
+        <v>1.008984339087549</v>
       </c>
       <c r="K19">
-        <v>1.010206134294591</v>
+        <v>1.013069422406599</v>
       </c>
       <c r="L19">
-        <v>1.012546850347311</v>
+        <v>1.014541970674449</v>
       </c>
       <c r="M19">
-        <v>1.023537887439065</v>
+        <v>1.025136777854747</v>
       </c>
       <c r="N19">
-        <v>1.005478468198659</v>
+        <v>1.009203235665511</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027777663789012</v>
+        <v>1.029042253471663</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.018362804409234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.020403763349512</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.015546792503965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9764169757079992</v>
+        <v>0.9791254417086668</v>
       </c>
       <c r="D20">
-        <v>0.9945056614521135</v>
+        <v>0.9976956368763722</v>
       </c>
       <c r="E20">
-        <v>0.9964163820957498</v>
+        <v>0.9986490489969128</v>
       </c>
       <c r="F20">
-        <v>1.007171973828149</v>
+        <v>1.008961506747876</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="J20">
-        <v>1.004888259716216</v>
+        <v>1.00748545418516</v>
       </c>
       <c r="K20">
-        <v>1.008645815122651</v>
+        <v>1.011779127116059</v>
       </c>
       <c r="L20">
-        <v>1.010522539158625</v>
+        <v>1.012715694917345</v>
       </c>
       <c r="M20">
-        <v>1.021089874223934</v>
+        <v>1.022848588147349</v>
       </c>
       <c r="N20">
-        <v>1.004780456456558</v>
+        <v>1.008784974945111</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.025304999496534</v>
+        <v>1.026696861224277</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.017263573467114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.019495855219132</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.015182664436505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.971198987581563</v>
+        <v>0.9744218611573184</v>
       </c>
       <c r="D21">
-        <v>0.9907148896315415</v>
+        <v>0.9944794813405187</v>
       </c>
       <c r="E21">
-        <v>0.9923012677134997</v>
+        <v>0.9949629947617162</v>
       </c>
       <c r="F21">
-        <v>1.003163105834604</v>
+        <v>1.005296173490745</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="J21">
-        <v>1.00195224912673</v>
+        <v>1.005029334481987</v>
       </c>
       <c r="K21">
-        <v>1.005874332644171</v>
+        <v>1.009566201898945</v>
       </c>
       <c r="L21">
-        <v>1.007429977745222</v>
+        <v>1.01004042726615</v>
       </c>
       <c r="M21">
-        <v>1.018084798983178</v>
+        <v>1.020177898161463</v>
       </c>
       <c r="N21">
-        <v>1.003691548066511</v>
+        <v>1.008491801088443</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.022885075224466</v>
+        <v>1.024541662679711</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.015307260061522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.017934824897221</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.014656298000309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9678768396874227</v>
+        <v>0.9714298131554986</v>
       </c>
       <c r="D22">
-        <v>0.9883065605963779</v>
+        <v>0.9924382140962977</v>
       </c>
       <c r="E22">
-        <v>0.9897113541342585</v>
+        <v>0.9926485522615125</v>
       </c>
       <c r="F22">
-        <v>1.000671520339828</v>
+        <v>1.003025057589326</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="J22">
-        <v>1.00009468887964</v>
+        <v>1.003477291527354</v>
       </c>
       <c r="K22">
-        <v>1.004113281300852</v>
+        <v>1.008160974701472</v>
       </c>
       <c r="L22">
-        <v>1.005489424100467</v>
+        <v>1.00836706316561</v>
       </c>
       <c r="M22">
-        <v>1.016229686008646</v>
+        <v>1.018536824753835</v>
       </c>
       <c r="N22">
-        <v>1.003002854106049</v>
+        <v>1.008302049125257</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.021416839022373</v>
+        <v>1.023242832251457</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.014048190820175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.016926088315852</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014320715838551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9696265777789395</v>
+        <v>0.9729921237277613</v>
       </c>
       <c r="D23">
-        <v>0.989564662395765</v>
+        <v>0.9934918305542697</v>
       </c>
       <c r="E23">
-        <v>0.9910732043195735</v>
+        <v>0.9938533282895685</v>
       </c>
       <c r="F23">
-        <v>1.001983989564453</v>
+        <v>1.004211979961567</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="J23">
-        <v>1.001065827354164</v>
+        <v>1.004274860617039</v>
       </c>
       <c r="K23">
-        <v>1.005028040220557</v>
+        <v>1.008877497979559</v>
       </c>
       <c r="L23">
-        <v>1.006506635552093</v>
+        <v>1.009231882958797</v>
       </c>
       <c r="M23">
-        <v>1.01720434258845</v>
+        <v>1.019389567280477</v>
       </c>
       <c r="N23">
-        <v>1.003361367818213</v>
+        <v>1.008353461591358</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.022188235069311</v>
+        <v>1.023917737131087</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.014685097625449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.017421893727059</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.014487969928404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9764027481288704</v>
+        <v>0.9791164065727991</v>
       </c>
       <c r="D24">
-        <v>0.9944719516377234</v>
+        <v>0.9976674091923713</v>
       </c>
       <c r="E24">
-        <v>0.996368091055202</v>
+        <v>0.9986055311601664</v>
       </c>
       <c r="F24">
-        <v>1.007088467511951</v>
+        <v>1.008881913823863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="J24">
-        <v>1.004840421229273</v>
+        <v>1.007442748617835</v>
       </c>
       <c r="K24">
-        <v>1.008596846494541</v>
+        <v>1.01173561194153</v>
       </c>
       <c r="L24">
-        <v>1.010459288702395</v>
+        <v>1.012657179568338</v>
       </c>
       <c r="M24">
-        <v>1.020992234820036</v>
+        <v>1.022754828018498</v>
       </c>
       <c r="N24">
-        <v>1.004755757121615</v>
+        <v>1.008763372839224</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025186169935018</v>
+        <v>1.026581173333011</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.017200841763533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.019434346401773</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.015164248417457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9839907414612541</v>
+        <v>0.9861723193413289</v>
       </c>
       <c r="D25">
-        <v>1.000004504698049</v>
+        <v>1.002539580076273</v>
       </c>
       <c r="E25">
-        <v>1.002332756088385</v>
+        <v>1.004133485269335</v>
       </c>
       <c r="F25">
-        <v>1.012850596724044</v>
+        <v>1.014292909950998</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="J25">
-        <v>1.009069159344309</v>
+        <v>1.011174172489614</v>
       </c>
       <c r="K25">
-        <v>1.012602750737261</v>
+        <v>1.015098599843435</v>
       </c>
       <c r="L25">
-        <v>1.014894966637111</v>
+        <v>1.016667971306415</v>
       </c>
       <c r="M25">
-        <v>1.025252646065787</v>
+        <v>1.026673325914166</v>
       </c>
       <c r="N25">
-        <v>1.006313672299345</v>
+        <v>1.009801414141676</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.028558065161877</v>
+        <v>1.029682456134768</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.020030420529499</v>
+        <v>1.021808996200145</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.015968533277276</v>
       </c>
     </row>
   </sheetData>
